--- a/data/trans_orig/P64B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P64B-Habitat-trans_orig.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2007" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2012" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2016" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -743,19 +744,19 @@
         <v>31070</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22227</v>
+        <v>22012</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42883</v>
+        <v>44612</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08130712559637776</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.058165620552466</v>
+        <v>0.05760219091607378</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1122196285309385</v>
+        <v>0.1167445803121892</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -764,19 +765,19 @@
         <v>12585</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6298</v>
+        <v>6142</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21703</v>
+        <v>21523</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0822788257838325</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04117812473665474</v>
+        <v>0.04015834486129816</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1418931411642673</v>
+        <v>0.1407212143444992</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -785,19 +786,19 @@
         <v>43655</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31629</v>
+        <v>32534</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56862</v>
+        <v>59018</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08158488012481867</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0591113677617476</v>
+        <v>0.06080197024319853</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1062670791412818</v>
+        <v>0.1102961941061737</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +815,19 @@
         <v>77726</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>62255</v>
+        <v>61533</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>95821</v>
+        <v>94964</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2033998335146683</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1629132807891923</v>
+        <v>0.1610257174070449</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2507517505119101</v>
+        <v>0.2485099732810286</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -835,19 +836,19 @@
         <v>21961</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13461</v>
+        <v>13991</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30841</v>
+        <v>31881</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1435842916437142</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08800781928710677</v>
+        <v>0.09147126008141536</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2016406147875271</v>
+        <v>0.2084375942379738</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>91</v>
@@ -856,19 +857,19 @@
         <v>99687</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>82023</v>
+        <v>81870</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>118348</v>
+        <v>118496</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1863019283785967</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1532907712358941</v>
+        <v>0.1530041579979144</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2211771284454759</v>
+        <v>0.2214528439319034</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +886,19 @@
         <v>5824</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1956</v>
+        <v>2812</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11924</v>
+        <v>11849</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01524202617891328</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.005118984966190681</v>
+        <v>0.007359380838805302</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03120472062297608</v>
+        <v>0.0310065621905883</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -919,19 +920,19 @@
         <v>5824</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1983</v>
+        <v>2027</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>12410</v>
+        <v>11798</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01088518664294768</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.003706396502461123</v>
+        <v>0.003788141300759839</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02319310384492193</v>
+        <v>0.02204827709929982</v>
       </c>
     </row>
     <row r="7">
@@ -948,19 +949,19 @@
         <v>6919</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2973</v>
+        <v>3021</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14687</v>
+        <v>13624</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01810657239806166</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00778052972662064</v>
+        <v>0.007906348696853612</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03843314892808258</v>
+        <v>0.03565173416767566</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -969,19 +970,19 @@
         <v>2855</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7806</v>
+        <v>8623</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01866689808513667</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005741834572011075</v>
+        <v>0.005744403004162526</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05103455491930949</v>
+        <v>0.05637948383872041</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -990,19 +991,19 @@
         <v>9774</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4960</v>
+        <v>4974</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17872</v>
+        <v>17316</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01826673805306119</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00926990404883552</v>
+        <v>0.00929554583007826</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03340112812675832</v>
+        <v>0.03236180193344436</v>
       </c>
     </row>
     <row r="8">
@@ -1019,19 +1020,19 @@
         <v>98906</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>82865</v>
+        <v>82695</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>116592</v>
+        <v>117560</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2588263097876204</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.216849485520326</v>
+        <v>0.2164042839938385</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3051088228753285</v>
+        <v>0.3076406390765035</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>57</v>
@@ -1040,19 +1041,19 @@
         <v>56774</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>45416</v>
+        <v>45399</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>69541</v>
+        <v>68127</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3711925151145288</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2969364797529606</v>
+        <v>0.2968193791717921</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4546636963992516</v>
+        <v>0.445421868883888</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>152</v>
@@ -1061,19 +1062,19 @@
         <v>155680</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>136669</v>
+        <v>135961</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>179331</v>
+        <v>179695</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2909454992003765</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2554156102720843</v>
+        <v>0.2540927732185497</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3351470446765765</v>
+        <v>0.3358265298639957</v>
       </c>
     </row>
     <row r="9">
@@ -1090,19 +1091,19 @@
         <v>161687</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>143462</v>
+        <v>142812</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>181201</v>
+        <v>179419</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4231181325243585</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3754230074836679</v>
+        <v>0.3737222413029371</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4741837203454004</v>
+        <v>0.4695184918420305</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>58</v>
@@ -1111,19 +1112,19 @@
         <v>58775</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>47408</v>
+        <v>46859</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>71129</v>
+        <v>71338</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3842774693727879</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3099573801927279</v>
+        <v>0.3063704609904435</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4650451797169041</v>
+        <v>0.4664142030822805</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>214</v>
@@ -1132,19 +1133,19 @@
         <v>220463</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>197684</v>
+        <v>197409</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>243125</v>
+        <v>244318</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4120157676001992</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3694455062004177</v>
+        <v>0.3689306633727963</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4543685403164975</v>
+        <v>0.4565975424475071</v>
       </c>
     </row>
     <row r="10">
@@ -1236,19 +1237,19 @@
         <v>35909</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>25325</v>
+        <v>25317</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>49606</v>
+        <v>50284</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06550112817678597</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04619546581372698</v>
+        <v>0.04618062106849144</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09048713272822273</v>
+        <v>0.0917237719016006</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -1257,19 +1258,19 @@
         <v>12006</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5921</v>
+        <v>6369</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21458</v>
+        <v>21638</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04539089735660549</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02238441017836305</v>
+        <v>0.02407863649711186</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08112576929385289</v>
+        <v>0.0818065739115084</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>42</v>
@@ -1278,19 +1279,19 @@
         <v>47915</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>35929</v>
+        <v>35865</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>65017</v>
+        <v>64759</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0589561951209669</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04420818443634475</v>
+        <v>0.04412935697397309</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.079999553215661</v>
+        <v>0.07968188284604785</v>
       </c>
     </row>
     <row r="12">
@@ -1307,19 +1308,19 @@
         <v>85867</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>68836</v>
+        <v>68115</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>104333</v>
+        <v>103544</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1566301661921733</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1255632627162726</v>
+        <v>0.1242479326056152</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1903132577669044</v>
+        <v>0.1888745643015284</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>45</v>
@@ -1328,19 +1329,19 @@
         <v>47994</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>36214</v>
+        <v>36415</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>60260</v>
+        <v>61491</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1814516191987594</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1369134852034663</v>
+        <v>0.1376739069214576</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2278270607280051</v>
+        <v>0.2324800568044729</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>123</v>
@@ -1349,19 +1350,19 @@
         <v>133861</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>113510</v>
+        <v>114440</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>155690</v>
+        <v>158325</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1647083801982126</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1396677254043755</v>
+        <v>0.1408119092848887</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1915671981997721</v>
+        <v>0.1948091427047369</v>
       </c>
     </row>
     <row r="13">
@@ -1378,19 +1379,19 @@
         <v>11256</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5390</v>
+        <v>5866</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20572</v>
+        <v>19753</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02053146891958955</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009831418353130363</v>
+        <v>0.01069978658935896</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03752549990505336</v>
+        <v>0.03603189389798022</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1399,19 +1400,19 @@
         <v>3874</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>974</v>
+        <v>1000</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9428</v>
+        <v>9016</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01464771487489542</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003682382356092509</v>
+        <v>0.003781986895366226</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03564484019067686</v>
+        <v>0.03408838203889386</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -1420,19 +1421,19 @@
         <v>15130</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8225</v>
+        <v>8249</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24490</v>
+        <v>25082</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01861658406899975</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.010120939780623</v>
+        <v>0.01015023744174549</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0301336309485852</v>
+        <v>0.0308614799851809</v>
       </c>
     </row>
     <row r="14">
@@ -1449,19 +1450,19 @@
         <v>8243</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3164</v>
+        <v>4055</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15562</v>
+        <v>16524</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01503538420264654</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005771002264183572</v>
+        <v>0.007397553561229271</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02838613726849406</v>
+        <v>0.03014078324245851</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -1470,19 +1471,19 @@
         <v>19151</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12005</v>
+        <v>11680</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>29490</v>
+        <v>28654</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07240301068720936</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04538667397268055</v>
+        <v>0.04415735009532398</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1114914760863394</v>
+        <v>0.1083313978403217</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>26</v>
@@ -1491,19 +1492,19 @@
         <v>27393</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>17399</v>
+        <v>19484</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>38617</v>
+        <v>40361</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03370584493827957</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0214079762810576</v>
+        <v>0.02397383263418037</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04751584509103233</v>
+        <v>0.04966180343754359</v>
       </c>
     </row>
     <row r="15">
@@ -1520,19 +1521,19 @@
         <v>143948</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>120876</v>
+        <v>123031</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>165340</v>
+        <v>165822</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2625751857975905</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2204889435615566</v>
+        <v>0.2244209114012795</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3015956940091121</v>
+        <v>0.3024753404225395</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>81</v>
@@ -1541,19 +1542,19 @@
         <v>87403</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>72605</v>
+        <v>73633</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>104534</v>
+        <v>103608</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3304442678734456</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2744964707728557</v>
+        <v>0.2783857351533721</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3952121351854322</v>
+        <v>0.3917096336298326</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>210</v>
@@ -1562,19 +1563,19 @@
         <v>231351</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>202397</v>
+        <v>203639</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>259320</v>
+        <v>260111</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2846633757700602</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2490372392120883</v>
+        <v>0.2505651241708358</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3190780173255554</v>
+        <v>0.3200513202978649</v>
       </c>
     </row>
     <row r="16">
@@ -1591,19 +1592,19 @@
         <v>262994</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>237048</v>
+        <v>240220</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>286933</v>
+        <v>286815</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4797266667112142</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4323996657920377</v>
+        <v>0.4381845948897123</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5233934093209307</v>
+        <v>0.5231779095378213</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>88</v>
@@ -1612,19 +1613,19 @@
         <v>94073</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>79588</v>
+        <v>79043</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>110763</v>
+        <v>110477</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3556624900090848</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3008990805486472</v>
+        <v>0.2988379522311875</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4187630861405822</v>
+        <v>0.4176823191013739</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>328</v>
@@ -1633,19 +1634,19 @@
         <v>357067</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>329585</v>
+        <v>328388</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>387371</v>
+        <v>385768</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.439349619903481</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4055338131584841</v>
+        <v>0.4040617030778034</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4766364065853668</v>
+        <v>0.47466400869663</v>
       </c>
     </row>
     <row r="17">
@@ -1737,19 +1738,19 @@
         <v>24913</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15760</v>
+        <v>16558</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>36800</v>
+        <v>35895</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06258351434176421</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03959021156356337</v>
+        <v>0.0415945924674688</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09244706466512219</v>
+        <v>0.09017250227785258</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>12</v>
@@ -1758,19 +1759,19 @@
         <v>11386</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5963</v>
+        <v>5812</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>18937</v>
+        <v>19293</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05484820058777366</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02872571263639745</v>
+        <v>0.02799923301679377</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09122489294363441</v>
+        <v>0.0929371068466513</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>35</v>
@@ -1779,19 +1780,19 @@
         <v>36298</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>26037</v>
+        <v>26136</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>50986</v>
+        <v>51015</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05993226754921112</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0429890417229881</v>
+        <v>0.04315230899728546</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08418228722787577</v>
+        <v>0.08423040975703766</v>
       </c>
     </row>
     <row r="19">
@@ -1808,19 +1809,19 @@
         <v>75966</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>61042</v>
+        <v>59917</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>93567</v>
+        <v>92268</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1908361630529743</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1533442956680554</v>
+        <v>0.1505196299443511</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2350501485661316</v>
+        <v>0.2317877724743236</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>52</v>
@@ -1829,19 +1830,19 @@
         <v>53003</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41164</v>
+        <v>41084</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>67298</v>
+        <v>66408</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2553272831576761</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1982961057648649</v>
+        <v>0.1979115957647476</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3241905144238966</v>
+        <v>0.3199043682062033</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>122</v>
@@ -1850,19 +1851,19 @@
         <v>128969</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>110040</v>
+        <v>110207</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>150463</v>
+        <v>152936</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2129402277054959</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1816859440066812</v>
+        <v>0.1819631275067759</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2484288340443686</v>
+        <v>0.252511436357369</v>
       </c>
     </row>
     <row r="20">
@@ -1879,19 +1880,19 @@
         <v>9607</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4224</v>
+        <v>4661</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18943</v>
+        <v>19930</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02413408009531888</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01061170159493444</v>
+        <v>0.01170969603930593</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04758686510699176</v>
+        <v>0.05006565786725482</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1900,19 +1901,19 @@
         <v>5519</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1948</v>
+        <v>1951</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12262</v>
+        <v>13040</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0265876120787055</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.009386191772209739</v>
+        <v>0.009396975993567688</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05906791022363072</v>
+        <v>0.06281810799245148</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>13</v>
@@ -1921,19 +1922,19 @@
         <v>15126</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8110</v>
+        <v>9095</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>25625</v>
+        <v>26320</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02497501803374761</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01339040356956055</v>
+        <v>0.01501714974658279</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04230964999134515</v>
+        <v>0.04345662750903757</v>
       </c>
     </row>
     <row r="21">
@@ -1950,19 +1951,19 @@
         <v>10659</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5544</v>
+        <v>5051</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>20149</v>
+        <v>20884</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02677658657835647</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01392804850509798</v>
+        <v>0.01268831692941623</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05061615005888123</v>
+        <v>0.05246298221974192</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>12</v>
@@ -1971,19 +1972,19 @@
         <v>12470</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6599</v>
+        <v>7034</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>21189</v>
+        <v>20934</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06007335435434433</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03178689593779009</v>
+        <v>0.03388477415451209</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1020717914532229</v>
+        <v>0.1008451874804917</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>21</v>
@@ -1992,19 +1993,19 @@
         <v>23129</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>13893</v>
+        <v>15127</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>34153</v>
+        <v>36248</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03818891600364081</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02293841908188769</v>
+        <v>0.02497591566378044</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05638930871619352</v>
+        <v>0.05984925723127258</v>
       </c>
     </row>
     <row r="22">
@@ -2021,19 +2022,19 @@
         <v>92336</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>75459</v>
+        <v>75681</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>109806</v>
+        <v>110105</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2319576650983844</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1895625376222764</v>
+        <v>0.1901198023630125</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2758459721806103</v>
+        <v>0.2765957134899981</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>66</v>
@@ -2042,19 +2043,19 @@
         <v>64876</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>52373</v>
+        <v>52905</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>78014</v>
+        <v>78921</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3125259604827687</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2522950597688979</v>
+        <v>0.2548562895337256</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3758115162417248</v>
+        <v>0.3801822913690137</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>153</v>
@@ -2063,19 +2064,19 @@
         <v>157212</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>136701</v>
+        <v>136325</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>179359</v>
+        <v>179608</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2595721150758171</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2257073736397279</v>
+        <v>0.2250863829795205</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2961389492169181</v>
+        <v>0.2965494190661261</v>
       </c>
     </row>
     <row r="23">
@@ -2092,19 +2093,19 @@
         <v>184590</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>162929</v>
+        <v>166449</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>203911</v>
+        <v>207846</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4637119908332018</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4092951040541381</v>
+        <v>0.4181392012182929</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5122473566407925</v>
+        <v>0.5221335843439974</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>62</v>
@@ -2113,19 +2114,19 @@
         <v>60333</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>48752</v>
+        <v>48181</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>72510</v>
+        <v>73575</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2906375893387317</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2348512870565364</v>
+        <v>0.2321001620825231</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.349297731070025</v>
+        <v>0.3544317730158685</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>233</v>
@@ -2134,19 +2135,19 @@
         <v>244923</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>221186</v>
+        <v>219666</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>270578</v>
+        <v>269356</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4043914556320874</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3651999859188426</v>
+        <v>0.3626906523296203</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.446750254361117</v>
+        <v>0.4447325366016831</v>
       </c>
     </row>
     <row r="24">
@@ -2238,19 +2239,19 @@
         <v>22657</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14174</v>
+        <v>14167</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>34042</v>
+        <v>34423</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0417469325089843</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02611636451888158</v>
+        <v>0.02610357972628866</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06272418587545278</v>
+        <v>0.06342557112879411</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -2259,19 +2260,19 @@
         <v>13416</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7155</v>
+        <v>6966</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>23407</v>
+        <v>22994</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03531480392199794</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01883552683326918</v>
+        <v>0.01833694728186292</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06161521766519726</v>
+        <v>0.06052981043205062</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>33</v>
@@ -2280,19 +2281,19 @@
         <v>36073</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>25588</v>
+        <v>24786</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>49371</v>
+        <v>49348</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03909851564370093</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02773458331553322</v>
+        <v>0.02686455885831296</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05351140428640228</v>
+        <v>0.05348655519994946</v>
       </c>
     </row>
     <row r="26">
@@ -2309,19 +2310,19 @@
         <v>96954</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>81842</v>
+        <v>79944</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>116819</v>
+        <v>116125</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1786397896773219</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1507971640700078</v>
+        <v>0.1472989429097658</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2152417033333101</v>
+        <v>0.2139631823538815</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>67</v>
@@ -2330,19 +2331,19 @@
         <v>72387</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>58128</v>
+        <v>58463</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>89021</v>
+        <v>89400</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1905497961558682</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1530143695956151</v>
+        <v>0.1538969740220238</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2343348858243941</v>
+        <v>0.2353338366609989</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>167</v>
@@ -2351,19 +2352,19 @@
         <v>169341</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>145741</v>
+        <v>144769</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>193982</v>
+        <v>196803</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1835437124762588</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.157964466325206</v>
+        <v>0.1569113411472729</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.210251176195407</v>
+        <v>0.213309318709173</v>
       </c>
     </row>
     <row r="27">
@@ -2380,19 +2381,19 @@
         <v>10849</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5574</v>
+        <v>5281</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>19281</v>
+        <v>19743</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.0199896545681589</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01027070894405953</v>
+        <v>0.009729947688137928</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03552659570931913</v>
+        <v>0.0363766886185926</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2</v>
@@ -2404,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>10762</v>
+        <v>9763</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.008192305094848527</v>
@@ -2413,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02832966491678553</v>
+        <v>0.02569894617622112</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>12</v>
@@ -2422,19 +2423,19 @@
         <v>13961</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>7520</v>
+        <v>7543</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>24162</v>
+        <v>23855</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01513211807954277</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.008150496880251256</v>
+        <v>0.008175816353485387</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02618829045407883</v>
+        <v>0.02585609991560348</v>
       </c>
     </row>
     <row r="28">
@@ -2451,19 +2452,19 @@
         <v>10643</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5370</v>
+        <v>5342</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>19106</v>
+        <v>18333</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01961072849621652</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.009893466177212165</v>
+        <v>0.009842516140072505</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03520310853832347</v>
+        <v>0.0337790423150589</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>23</v>
@@ -2472,19 +2473,19 @@
         <v>24203</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>15735</v>
+        <v>15772</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>34783</v>
+        <v>35191</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06371108342546598</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04142032365974661</v>
+        <v>0.04151749036112449</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0915610090545146</v>
+        <v>0.09263470492599273</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>34</v>
@@ -2493,19 +2494,19 @@
         <v>34846</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>24391</v>
+        <v>24287</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>47097</v>
+        <v>48047</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03776896681189817</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02643713317922172</v>
+        <v>0.02632359550479252</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05104728779741571</v>
+        <v>0.05207672408408946</v>
       </c>
     </row>
     <row r="29">
@@ -2522,19 +2523,19 @@
         <v>174332</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>151582</v>
+        <v>152336</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>195079</v>
+        <v>196578</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3212119984736006</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2792940431792216</v>
+        <v>0.2806837732925646</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3594395124460897</v>
+        <v>0.3622013908665642</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>139</v>
@@ -2543,19 +2544,19 @@
         <v>146128</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>129026</v>
+        <v>127847</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>165803</v>
+        <v>165433</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3846629607535516</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3396431394326156</v>
+        <v>0.3365402690374213</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.436454240461426</v>
+        <v>0.4354809054685719</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>321</v>
@@ -2564,19 +2565,19 @@
         <v>320460</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>292705</v>
+        <v>292992</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>348502</v>
+        <v>348256</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3473378130228733</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3172547508102021</v>
+        <v>0.3175661147543414</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3777311586682535</v>
+        <v>0.3774650380273178</v>
       </c>
     </row>
     <row r="30">
@@ -2593,19 +2594,19 @@
         <v>227297</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>204923</v>
+        <v>205435</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>250994</v>
+        <v>250790</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4188008962757178</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3775763485373041</v>
+        <v>0.3785205145492703</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4624639696402607</v>
+        <v>0.4620884521984608</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>115</v>
@@ -2614,19 +2615,19 @@
         <v>120640</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>102871</v>
+        <v>105296</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>139437</v>
+        <v>139728</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3175690506482678</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2707945632946506</v>
+        <v>0.2771768361741658</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3670496268587512</v>
+        <v>0.3678146941226806</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>353</v>
@@ -2635,19 +2636,19 @@
         <v>347937</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>321873</v>
+        <v>320190</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>378655</v>
+        <v>376826</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.377118873965726</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3488693058087333</v>
+        <v>0.3470453588870696</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4104139234927784</v>
+        <v>0.4084315500868407</v>
       </c>
     </row>
     <row r="31">
@@ -2739,19 +2740,19 @@
         <v>114549</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>93817</v>
+        <v>93345</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>136181</v>
+        <v>136681</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06121842886589191</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05013840456558705</v>
+        <v>0.04988612240741169</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07277904462032285</v>
+        <v>0.0730466707574902</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>44</v>
@@ -2760,19 +2761,19 @@
         <v>49392</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>36710</v>
+        <v>36287</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>65443</v>
+        <v>66163</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04914984619991529</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03653026793744814</v>
+        <v>0.03610948117234909</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.06512266723136975</v>
+        <v>0.06583894896210669</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>151</v>
@@ -2781,19 +2782,19 @@
         <v>163941</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>139195</v>
+        <v>140039</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>192147</v>
+        <v>191205</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.05700156823700191</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0483975089857993</v>
+        <v>0.0486908432690852</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06680856473366077</v>
+        <v>0.06648122430948401</v>
       </c>
     </row>
     <row r="33">
@@ -2810,19 +2811,19 @@
         <v>336513</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>302302</v>
+        <v>302342</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>372334</v>
+        <v>373726</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1798425893957431</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1615590390847032</v>
+        <v>0.1615808052205022</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1989864530192517</v>
+        <v>0.1997303640046669</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>185</v>
@@ -2831,19 +2832,19 @@
         <v>195345</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>170394</v>
+        <v>168958</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>223099</v>
+        <v>222050</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1943879884724835</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1695592106190339</v>
+        <v>0.1681297427992766</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2220058496955299</v>
+        <v>0.2209617496300768</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>503</v>
@@ -2852,19 +2853,19 @@
         <v>531858</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>489669</v>
+        <v>489814</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>577278</v>
+        <v>578399</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1849248697592124</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1702558608745509</v>
+        <v>0.1703062619658247</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2007171026679465</v>
+        <v>0.201106955072405</v>
       </c>
     </row>
     <row r="34">
@@ -2881,19 +2882,19 @@
         <v>37536</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>27187</v>
+        <v>26794</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>52974</v>
+        <v>51823</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02006051145867781</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01452951981599477</v>
+        <v>0.01431961476466317</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02831088215335893</v>
+        <v>0.02769560989866232</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>11</v>
@@ -2902,19 +2903,19 @@
         <v>12506</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>6610</v>
+        <v>6506</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>21560</v>
+        <v>22334</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01244443913156162</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.006577263660443377</v>
+        <v>0.006474412692482752</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.021454497241295</v>
+        <v>0.02222474985579265</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>45</v>
@@ -2923,19 +2924,19 @@
         <v>50042</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>36911</v>
+        <v>36390</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>68281</v>
+        <v>66459</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01739939404067851</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01283369177786684</v>
+        <v>0.01265279310514031</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02374087252344275</v>
+        <v>0.02310745528462825</v>
       </c>
     </row>
     <row r="35">
@@ -2952,19 +2953,19 @@
         <v>36464</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>25664</v>
+        <v>26041</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>50727</v>
+        <v>49722</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01948751988223226</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01371573714433964</v>
+        <v>0.01391723562792246</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02711007527784537</v>
+        <v>0.02657305694842637</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>56</v>
@@ -2973,19 +2974,19 @@
         <v>58679</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>45112</v>
+        <v>43319</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>75230</v>
+        <v>75100</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05839164268852309</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04489079658621759</v>
+        <v>0.04310643083405084</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07486172087716403</v>
+        <v>0.07473160136314097</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>91</v>
@@ -2994,19 +2995,19 @@
         <v>95143</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>77238</v>
+        <v>76640</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>116506</v>
+        <v>117980</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0330809358038751</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02685550309307551</v>
+        <v>0.02664735011085499</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04050856681659307</v>
+        <v>0.04102122616578814</v>
       </c>
     </row>
     <row r="36">
@@ -3023,19 +3024,19 @@
         <v>509522</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>471526</v>
+        <v>472622</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>551550</v>
+        <v>548752</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2723036978339844</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2519974899508526</v>
+        <v>0.2525835283705139</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2947647618158264</v>
+        <v>0.2932696481098043</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>343</v>
@@ -3044,19 +3045,19 @@
         <v>355181</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>326095</v>
+        <v>324672</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>385977</v>
+        <v>386013</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.353440799358502</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3244972815764359</v>
+        <v>0.3230808316765043</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3840850313766189</v>
+        <v>0.3841210458834082</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>836</v>
@@ -3065,19 +3066,19 @@
         <v>864703</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>817254</v>
+        <v>815511</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>912576</v>
+        <v>919447</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3006536589214243</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2841558029647006</v>
+        <v>0.283549663235821</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.317298992157021</v>
+        <v>0.3196879812166658</v>
       </c>
     </row>
     <row r="37">
@@ -3094,19 +3095,19 @@
         <v>836568</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>788507</v>
+        <v>789538</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>877213</v>
+        <v>883795</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4470872525634705</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4214018687814864</v>
+        <v>0.4219528294518595</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4688092163569338</v>
+        <v>0.4723264666885171</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>323</v>
@@ -3115,19 +3116,19 @@
         <v>333821</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>304954</v>
+        <v>303884</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>365401</v>
+        <v>366659</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3321852841490145</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3034595157043549</v>
+        <v>0.3023949976914688</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3636102762019648</v>
+        <v>0.3648616562821924</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1128</v>
@@ -3136,19 +3137,19 @@
         <v>1170390</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1115907</v>
+        <v>1117974</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1223254</v>
+        <v>1226703</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4069395732378078</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.387996363317937</v>
+        <v>0.3887150761258187</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4253201524954968</v>
+        <v>0.4265194258004217</v>
       </c>
     </row>
     <row r="38">
@@ -3480,19 +3481,19 @@
         <v>14459</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8442</v>
+        <v>8695</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23761</v>
+        <v>24291</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05525476642628457</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03225817341205174</v>
+        <v>0.03322702159604928</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0908005210101957</v>
+        <v>0.09282586591668128</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -3501,19 +3502,19 @@
         <v>12018</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6195</v>
+        <v>6142</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20788</v>
+        <v>20303</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07502095776160092</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03867385570432971</v>
+        <v>0.03834495305133516</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1297704920971154</v>
+        <v>0.1267408917265259</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -3522,19 +3523,19 @@
         <v>26477</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17332</v>
+        <v>17300</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37370</v>
+        <v>38806</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06276015113866974</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04108351824970404</v>
+        <v>0.04100617013459975</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08858165525014705</v>
+        <v>0.09198452692894112</v>
       </c>
     </row>
     <row r="5">
@@ -3551,19 +3552,19 @@
         <v>60365</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>46759</v>
+        <v>47037</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>74828</v>
+        <v>76352</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.230678667296829</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1786820903956654</v>
+        <v>0.1797453774307341</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.285947048177614</v>
+        <v>0.2917681751767071</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -3572,19 +3573,19 @@
         <v>28857</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19910</v>
+        <v>20455</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>39775</v>
+        <v>41591</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1801394580536913</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1242892036634839</v>
+        <v>0.1276890636054299</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2482966188139908</v>
+        <v>0.2596345205178833</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>81</v>
@@ -3593,19 +3594,19 @@
         <v>89222</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>72314</v>
+        <v>73582</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>109137</v>
+        <v>107630</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2114885156892325</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1714102069112957</v>
+        <v>0.1744156142818191</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2586934087619251</v>
+        <v>0.2551222963720209</v>
       </c>
     </row>
     <row r="6">
@@ -3622,19 +3623,19 @@
         <v>3648</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>961</v>
+        <v>946</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9079</v>
+        <v>8632</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01393864341493947</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.003673568092623496</v>
+        <v>0.003615009194496401</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03469250949216217</v>
+        <v>0.03298464933935594</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -3646,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5082</v>
+        <v>5157</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.006331102836190081</v>
@@ -3655,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03172364089902982</v>
+        <v>0.03219109424751322</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -3664,19 +3665,19 @@
         <v>4662</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1693</v>
+        <v>1748</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10234</v>
+        <v>11208</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01104999796018364</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.004013011967136364</v>
+        <v>0.004142883545020574</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02425898497831036</v>
+        <v>0.026567298926178</v>
       </c>
     </row>
     <row r="7">
@@ -3693,19 +3694,19 @@
         <v>7016</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2904</v>
+        <v>2762</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16791</v>
+        <v>16052</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02681163340088376</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0110965599517973</v>
+        <v>0.01055389565413551</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06416654762127282</v>
+        <v>0.06134083672148241</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -3714,19 +3715,19 @@
         <v>5934</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2029</v>
+        <v>2050</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12701</v>
+        <v>11992</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03704439732434713</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01266525917265445</v>
+        <v>0.01279493244201591</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07928520166241183</v>
+        <v>0.0748631537751291</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -3735,19 +3736,19 @@
         <v>12950</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6857</v>
+        <v>6959</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22909</v>
+        <v>22038</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0306970976571863</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01625278532199899</v>
+        <v>0.016494458063723</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05430154643021086</v>
+        <v>0.05223817079334819</v>
       </c>
     </row>
     <row r="8">
@@ -3764,19 +3765,19 @@
         <v>67651</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>53965</v>
+        <v>54510</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>82581</v>
+        <v>83582</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2585207834930843</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2062189422815556</v>
+        <v>0.208304422112515</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.315574486396158</v>
+        <v>0.3193994475123134</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>50</v>
@@ -3785,19 +3786,19 @@
         <v>53041</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>41640</v>
+        <v>41343</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>66309</v>
+        <v>65976</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3311145498157345</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.259940716583529</v>
+        <v>0.2580886630933412</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4139419063203884</v>
+        <v>0.4118600888293972</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>118</v>
@@ -3806,19 +3807,19 @@
         <v>120692</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>101360</v>
+        <v>104256</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>139783</v>
+        <v>141585</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2860852310252199</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.240261250452056</v>
+        <v>0.2471245147424507</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.331337016686702</v>
+        <v>0.3356078490544436</v>
       </c>
     </row>
     <row r="9">
@@ -3835,19 +3836,19 @@
         <v>108546</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>93806</v>
+        <v>92404</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>125590</v>
+        <v>125142</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4147955059679789</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3584691488737271</v>
+        <v>0.3531109278803209</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4799251247899078</v>
+        <v>0.4782135824451683</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>55</v>
@@ -3856,19 +3857,19 @@
         <v>59326</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>47166</v>
+        <v>47199</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>71250</v>
+        <v>73211</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3703495342084361</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2944402279484298</v>
+        <v>0.2946430055949467</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4447850458874981</v>
+        <v>0.4570240324900203</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>161</v>
@@ -3877,19 +3878,19 @@
         <v>167872</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>146663</v>
+        <v>148214</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>186457</v>
+        <v>188312</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.397919006529508</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3476459330405246</v>
+        <v>0.3513204179292948</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4419714357175032</v>
+        <v>0.4463672037370455</v>
       </c>
     </row>
     <row r="10">
@@ -3981,19 +3982,19 @@
         <v>21939</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13694</v>
+        <v>13939</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>33379</v>
+        <v>33473</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05400945055010347</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03371277717659726</v>
+        <v>0.03431535978619545</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08217385473742372</v>
+        <v>0.0824063740244782</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>19</v>
@@ -4002,19 +4003,19 @@
         <v>21336</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>13326</v>
+        <v>13874</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>32725</v>
+        <v>32621</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07886590560954593</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04925646994289335</v>
+        <v>0.05128100959582858</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1209604327681861</v>
+        <v>0.1205770450742783</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>38</v>
@@ -4023,19 +4024,19 @@
         <v>43275</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>30441</v>
+        <v>30984</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>58133</v>
+        <v>57626</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06394635624301032</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04498212951060632</v>
+        <v>0.04578361141547378</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08590113150879558</v>
+        <v>0.0851531947551194</v>
       </c>
     </row>
     <row r="12">
@@ -4052,19 +4053,19 @@
         <v>85676</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>68592</v>
+        <v>69694</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>103344</v>
+        <v>103350</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2109227194645519</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.168862843822275</v>
+        <v>0.17157670937113</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2544184882738145</v>
+        <v>0.2544335871421975</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>34</v>
@@ -4073,19 +4074,19 @@
         <v>36201</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>25168</v>
+        <v>26747</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>48485</v>
+        <v>51792</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1338089058508688</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09302751308361806</v>
+        <v>0.09886381977508905</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1792137737969774</v>
+        <v>0.1914392680351539</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>113</v>
@@ -4094,19 +4095,19 @@
         <v>121877</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>103565</v>
+        <v>101723</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>143026</v>
+        <v>142533</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1800948040732751</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1530358437808423</v>
+        <v>0.1503129847481288</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2113464708381474</v>
+        <v>0.2106175549176781</v>
       </c>
     </row>
     <row r="13">
@@ -4123,19 +4124,19 @@
         <v>14965</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7993</v>
+        <v>7247</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25119</v>
+        <v>25517</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03684201769268255</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01967859176138939</v>
+        <v>0.01784010956929883</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06184002392040028</v>
+        <v>0.0628188580997905</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -4147,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7941</v>
+        <v>6977</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008277598122176825</v>
@@ -4156,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02935211298386771</v>
+        <v>0.02579084393659843</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -4165,19 +4166,19 @@
         <v>17205</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9371</v>
+        <v>9443</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28631</v>
+        <v>28800</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02542277296265366</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01384797376652347</v>
+        <v>0.01395373629216665</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04230669214977727</v>
+        <v>0.04255644862098854</v>
       </c>
     </row>
     <row r="14">
@@ -4194,19 +4195,19 @@
         <v>5309</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13040</v>
+        <v>11583</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01306950495350015</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004619137527905643</v>
+        <v>0.004610462463505845</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03210224140355452</v>
+        <v>0.02851663688047246</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>23</v>
@@ -4215,19 +4216,19 @@
         <v>25606</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16577</v>
+        <v>16546</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>37724</v>
+        <v>37569</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09464596742513028</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06127534375497472</v>
+        <v>0.06116023114322441</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1394386707736748</v>
+        <v>0.1388653863523375</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>28</v>
@@ -4236,19 +4237,19 @@
         <v>30914</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>20352</v>
+        <v>20361</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>44276</v>
+        <v>42654</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04568146077757113</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0300730155287331</v>
+        <v>0.0300871044706316</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06542590217448675</v>
+        <v>0.06302908402021754</v>
       </c>
     </row>
     <row r="15">
@@ -4265,19 +4266,19 @@
         <v>115107</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>95995</v>
+        <v>96736</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>133742</v>
+        <v>134034</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2833755082566682</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.236326470214131</v>
+        <v>0.2381500633454211</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3292537208935581</v>
+        <v>0.3299709300131773</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>84</v>
@@ -4286,19 +4287,19 @@
         <v>94331</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>79092</v>
+        <v>78325</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>111963</v>
+        <v>112347</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3486769139986217</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2923476732695471</v>
+        <v>0.2895141832725243</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4138490928139171</v>
+        <v>0.4152681213970505</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>189</v>
@@ -4307,19 +4308,19 @@
         <v>209438</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>184492</v>
+        <v>186068</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>234449</v>
+        <v>236027</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3094811580333662</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2726184670275011</v>
+        <v>0.274948201919358</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3464394465782877</v>
+        <v>0.3487711301154852</v>
       </c>
     </row>
     <row r="16">
@@ -4336,19 +4337,19 @@
         <v>163203</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>141964</v>
+        <v>143050</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>183146</v>
+        <v>183559</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4017807990824938</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3494942343333899</v>
+        <v>0.3521678518315636</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4508786041854171</v>
+        <v>0.4518949855189858</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>83</v>
@@ -4357,19 +4358,19 @@
         <v>90827</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>77151</v>
+        <v>75296</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>107472</v>
+        <v>108213</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3357247089936565</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.285174019058375</v>
+        <v>0.2783179535702353</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3972500783163261</v>
+        <v>0.3999890416547289</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>237</v>
@@ -4378,19 +4379,19 @@
         <v>254030</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>229148</v>
+        <v>228277</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>281348</v>
+        <v>282617</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3753734479101236</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3386059897572276</v>
+        <v>0.3373189730186534</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4157400621020353</v>
+        <v>0.4176157251321478</v>
       </c>
     </row>
     <row r="17">
@@ -4482,19 +4483,19 @@
         <v>18910</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10775</v>
+        <v>10913</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>29576</v>
+        <v>31280</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06001619634629093</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03419653442662833</v>
+        <v>0.03463589087295686</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09386775146563529</v>
+        <v>0.0992759358003751</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>14</v>
@@ -4503,19 +4504,19 @@
         <v>14718</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8260</v>
+        <v>8597</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>23372</v>
+        <v>24225</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06931412684386211</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0389019939591958</v>
+        <v>0.04048923561267671</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1100704474832281</v>
+        <v>0.1140873754031804</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>29</v>
@@ -4524,19 +4525,19 @@
         <v>33628</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>23720</v>
+        <v>23119</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>49478</v>
+        <v>48249</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06375951946156155</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04497354549494803</v>
+        <v>0.0438332202839149</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09381095405972277</v>
+        <v>0.09148032792004317</v>
       </c>
     </row>
     <row r="19">
@@ -4553,19 +4554,19 @@
         <v>65933</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>52216</v>
+        <v>51702</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>83401</v>
+        <v>82781</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2092581585454403</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1657219167163483</v>
+        <v>0.164091914792558</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2646966746554067</v>
+        <v>0.2627278400148386</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -4574,19 +4575,19 @@
         <v>28916</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19263</v>
+        <v>19484</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41022</v>
+        <v>42633</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1361813285732011</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09071917512278245</v>
+        <v>0.09176148917290174</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1931936792695824</v>
+        <v>0.2007802459140725</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>82</v>
@@ -4595,19 +4596,19 @@
         <v>94850</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>76971</v>
+        <v>76582</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>115943</v>
+        <v>114952</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1798376130921009</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1459375739854503</v>
+        <v>0.1452008422647832</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2198306356613648</v>
+        <v>0.2179518003898338</v>
       </c>
     </row>
     <row r="20">
@@ -4624,19 +4625,19 @@
         <v>12329</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6896</v>
+        <v>5980</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22636</v>
+        <v>20879</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03912862691650527</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02188543645898197</v>
+        <v>0.01898046329841241</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07184240854413473</v>
+        <v>0.06626630928396816</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -4648,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4986</v>
+        <v>5421</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.004671844944772945</v>
@@ -4657,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0234791810119988</v>
+        <v>0.0255283708073005</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>12</v>
@@ -4666,19 +4667,19 @@
         <v>13321</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6869</v>
+        <v>7072</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>22596</v>
+        <v>23578</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02525641433475723</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01302387794733068</v>
+        <v>0.01340870822894158</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04284163104933106</v>
+        <v>0.04470519057124712</v>
       </c>
     </row>
     <row r="21">
@@ -4695,19 +4696,19 @@
         <v>7122</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2820</v>
+        <v>2727</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14873</v>
+        <v>15608</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02260350590872907</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.008951387214742614</v>
+        <v>0.008653345308540958</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04720380080495159</v>
+        <v>0.04953499362430918</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -4716,19 +4717,19 @@
         <v>17318</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>9721</v>
+        <v>9791</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>28730</v>
+        <v>27199</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08155897274533039</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0457784431201192</v>
+        <v>0.04611194060430916</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.135302856044272</v>
+        <v>0.1280907416519256</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>20</v>
@@ -4737,19 +4738,19 @@
         <v>24440</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>15669</v>
+        <v>15327</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>38360</v>
+        <v>38667</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04633882656300468</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02970882747495644</v>
+        <v>0.02906031005360742</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07273043497612337</v>
+        <v>0.0733140994149679</v>
       </c>
     </row>
     <row r="22">
@@ -4766,19 +4767,19 @@
         <v>82739</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>68362</v>
+        <v>66171</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>100481</v>
+        <v>99091</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2625942273570262</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2169663273396606</v>
+        <v>0.2100120537868267</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3189051420664251</v>
+        <v>0.3144914656166909</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>69</v>
@@ -4787,19 +4788,19 @@
         <v>76279</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>61329</v>
+        <v>61716</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>91279</v>
+        <v>91862</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3592344221968098</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2888278600803299</v>
+        <v>0.2906520504605286</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4298759672957021</v>
+        <v>0.4326211010936765</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>147</v>
@@ -4808,19 +4809,19 @@
         <v>159018</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>138919</v>
+        <v>138186</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>183381</v>
+        <v>181188</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3015013234363653</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2633931230109586</v>
+        <v>0.262003938806304</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3476931954747173</v>
+        <v>0.3435362472647946</v>
       </c>
     </row>
     <row r="23">
@@ -4837,19 +4838,19 @@
         <v>128049</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>108667</v>
+        <v>107526</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>147084</v>
+        <v>145462</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4063992849260082</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3448843467923606</v>
+        <v>0.3412626482901489</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4668117275085755</v>
+        <v>0.4616647308377857</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>67</v>
@@ -4858,19 +4859,19 @@
         <v>74114</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>59375</v>
+        <v>59883</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>89760</v>
+        <v>89333</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3490393046960236</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2796255763248474</v>
+        <v>0.2820165709958008</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4227201482697835</v>
+        <v>0.4207132221685971</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>186</v>
@@ -4879,19 +4880,19 @@
         <v>202164</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>175932</v>
+        <v>177443</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>225378</v>
+        <v>225712</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3833063031122104</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3335712685744257</v>
+        <v>0.336435360794909</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4273206759229761</v>
+        <v>0.4279539091794277</v>
       </c>
     </row>
     <row r="24">
@@ -4983,19 +4984,19 @@
         <v>21425</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13216</v>
+        <v>13903</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>32512</v>
+        <v>34361</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05299251639400619</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03268914592434214</v>
+        <v>0.03438632953857176</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08041328941374805</v>
+        <v>0.08498654200415851</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>15</v>
@@ -5004,19 +5005,19 @@
         <v>17542</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9895</v>
+        <v>10745</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>27981</v>
+        <v>28675</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05973831496383786</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03369582544689662</v>
+        <v>0.03659162255790836</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09528865996405153</v>
+        <v>0.09765200083732095</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>35</v>
@@ -5025,19 +5026,19 @@
         <v>38967</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>26213</v>
+        <v>27870</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>53126</v>
+        <v>53713</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05583063876499846</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03755657199623089</v>
+        <v>0.03993117679615654</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07611722660735937</v>
+        <v>0.07695827506783738</v>
       </c>
     </row>
     <row r="26">
@@ -5054,19 +5055,19 @@
         <v>119865</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>103046</v>
+        <v>103148</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>139658</v>
+        <v>140508</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2964691816366745</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2548705925841265</v>
+        <v>0.2551229850745848</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3454252574158679</v>
+        <v>0.3475290386584859</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>52</v>
@@ -5075,19 +5076,19 @@
         <v>55650</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>43067</v>
+        <v>43225</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>69628</v>
+        <v>70695</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.189512244298047</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1466642779343941</v>
+        <v>0.1472012529128198</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2371138166827547</v>
+        <v>0.2407481463118556</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>166</v>
@@ -5096,19 +5097,19 @@
         <v>175514</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>152733</v>
+        <v>153703</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>203982</v>
+        <v>200828</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2514697833517726</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2188296676725036</v>
+        <v>0.2202198833514349</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2922578743535142</v>
+        <v>0.2877384883198343</v>
       </c>
     </row>
     <row r="27">
@@ -5125,19 +5126,19 @@
         <v>13286</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7492</v>
+        <v>7653</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>22959</v>
+        <v>23787</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.03286221930514507</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01853046095998316</v>
+        <v>0.01892808355233491</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.05678585543295239</v>
+        <v>0.05883343452587664</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>6</v>
@@ -5146,19 +5147,19 @@
         <v>7230</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2946</v>
+        <v>3166</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>16058</v>
+        <v>17054</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02462294978576355</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01003354656726381</v>
+        <v>0.01078194651596022</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.05468345845707587</v>
+        <v>0.05807656047084423</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>19</v>
@@ -5167,19 +5168,19 @@
         <v>20517</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>12563</v>
+        <v>12533</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>32541</v>
+        <v>32314</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.02939575719520766</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.018000073946531</v>
+        <v>0.01795609898172671</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.04662393553287466</v>
+        <v>0.04629808271758869</v>
       </c>
     </row>
     <row r="28">
@@ -5196,19 +5197,19 @@
         <v>8691</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4010</v>
+        <v>3759</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>16623</v>
+        <v>15392</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02149527594488258</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.009918584281093851</v>
+        <v>0.009297865967721013</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04111424507910235</v>
+        <v>0.0380692136380818</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>19</v>
@@ -5217,19 +5218,19 @@
         <v>19355</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>12254</v>
+        <v>12103</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>28831</v>
+        <v>30176</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06591418578035178</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04173145851283</v>
+        <v>0.04121682287903919</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0981819499883459</v>
+        <v>0.1027636978736638</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>28</v>
@@ -5238,19 +5239,19 @@
         <v>28046</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>19872</v>
+        <v>19123</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>40113</v>
+        <v>39723</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04018339720941651</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02847249281805323</v>
+        <v>0.02739926866120101</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05747270991658422</v>
+        <v>0.05691408212807185</v>
       </c>
     </row>
     <row r="29">
@@ -5267,19 +5268,19 @@
         <v>108050</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>89820</v>
+        <v>91304</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>127250</v>
+        <v>127554</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2672464860204385</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2221591311694817</v>
+        <v>0.2258288952151659</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3147369218184831</v>
+        <v>0.3154891900831233</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>116</v>
@@ -5288,19 +5289,19 @@
         <v>121629</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>105883</v>
+        <v>105877</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>139741</v>
+        <v>138538</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.414203650098651</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3605794393406893</v>
+        <v>0.3605584320403662</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.475881677924737</v>
+        <v>0.4717861099262049</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>220</v>
@@ -5309,19 +5310,19 @@
         <v>229679</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>205272</v>
+        <v>206063</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>255648</v>
+        <v>254181</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3290749575691175</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2941064519771624</v>
+        <v>0.2952397521858416</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3662821619872573</v>
+        <v>0.364180974798704</v>
       </c>
     </row>
     <row r="30">
@@ -5338,19 +5339,19 @@
         <v>132990</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>114499</v>
+        <v>114572</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>151802</v>
+        <v>153181</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3289343206988531</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.283197624807565</v>
+        <v>0.2833782318282377</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3754614247003253</v>
+        <v>0.3788727329630002</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>72</v>
@@ -5359,19 +5360,19 @@
         <v>72239</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>58316</v>
+        <v>59060</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>89339</v>
+        <v>86800</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2460086550733488</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1985932716306879</v>
+        <v>0.2011249980499256</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3042414564779168</v>
+        <v>0.295593151349309</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>202</v>
@@ -5380,19 +5381,19 @@
         <v>205230</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>181525</v>
+        <v>180927</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>231133</v>
+        <v>230295</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2940454659094873</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2600816404815347</v>
+        <v>0.2592252242498851</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3311578941818686</v>
+        <v>0.3299572516496274</v>
       </c>
     </row>
     <row r="31">
@@ -5484,19 +5485,19 @@
         <v>76733</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>59499</v>
+        <v>60293</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>96068</v>
+        <v>97388</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0553122563862235</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04288936844280385</v>
+        <v>0.04346183116506582</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.06924925961036314</v>
+        <v>0.07020085589930829</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>59</v>
@@ -5505,19 +5506,19 @@
         <v>65614</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>51637</v>
+        <v>51146</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>82765</v>
+        <v>86226</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.07004693197682144</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05512540099098028</v>
+        <v>0.05460160837141582</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.08835670770881367</v>
+        <v>0.09205111626941384</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>127</v>
@@ -5526,19 +5527,19 @@
         <v>142347</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>119682</v>
+        <v>119171</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>168632</v>
+        <v>171209</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.06125126577984495</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05149860260004355</v>
+        <v>0.05127854168834701</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.07256139294346023</v>
+        <v>0.07367048567547481</v>
       </c>
     </row>
     <row r="33">
@@ -5555,19 +5556,19 @@
         <v>331840</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>301357</v>
+        <v>301382</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>368378</v>
+        <v>369821</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2392029439594905</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2172297351734593</v>
+        <v>0.2172473433972877</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2655405812121774</v>
+        <v>0.2665812732848215</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>137</v>
@@ -5576,19 +5577,19 @@
         <v>149623</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>127850</v>
+        <v>126902</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>173301</v>
+        <v>174634</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1597319337679387</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1364876913043416</v>
+        <v>0.1354759909455444</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1850098385297934</v>
+        <v>0.1864326244923999</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>442</v>
@@ -5597,19 +5598,19 @@
         <v>481463</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>441829</v>
+        <v>438883</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>529627</v>
+        <v>522825</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2071710832547066</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1901164491797749</v>
+        <v>0.1888492001823018</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2278954796462674</v>
+        <v>0.224968967564955</v>
       </c>
     </row>
     <row r="34">
@@ -5626,19 +5627,19 @@
         <v>44228</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>31564</v>
+        <v>31173</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>59634</v>
+        <v>59776</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03188114431315318</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02275221353245145</v>
+        <v>0.02247045206131818</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04298645352789877</v>
+        <v>0.0430886811761415</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>10</v>
@@ -5647,19 +5648,19 @@
         <v>11476</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>5365</v>
+        <v>5987</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>20788</v>
+        <v>21423</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01225137399856018</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.005727874627360369</v>
+        <v>0.0063911919944659</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02219261425817078</v>
+        <v>0.02287003701137998</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>50</v>
@@ -5668,19 +5669,19 @@
         <v>55704</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>42981</v>
+        <v>42153</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>74407</v>
+        <v>73084</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02396910108042745</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01849465083545233</v>
+        <v>0.01813814209711615</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03201691795474795</v>
+        <v>0.03144768389526283</v>
       </c>
     </row>
     <row r="35">
@@ -5697,19 +5698,19 @@
         <v>28138</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>18661</v>
+        <v>18437</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>40749</v>
+        <v>41277</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02028273165699986</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01345135676004245</v>
+        <v>0.01329012489423499</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02937347599087068</v>
+        <v>0.02975387402299499</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>62</v>
@@ -5718,19 +5719,19 @@
         <v>68213</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>52503</v>
+        <v>53983</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>85135</v>
+        <v>88200</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.07282180436771564</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05605014385061849</v>
+        <v>0.05763055566577455</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.09088640404499715</v>
+        <v>0.09415928921545014</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>88</v>
@@ -5739,19 +5740,19 @@
         <v>96351</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>76369</v>
+        <v>78042</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>117730</v>
+        <v>118852</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04145931233178615</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03286135455396525</v>
+        <v>0.03358109432107886</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05065866137068024</v>
+        <v>0.05114149316629758</v>
       </c>
     </row>
     <row r="36">
@@ -5768,19 +5769,19 @@
         <v>373546</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>341170</v>
+        <v>336956</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>409257</v>
+        <v>407853</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2692665180028728</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2459281407971592</v>
+        <v>0.2428906531439353</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2950079905825387</v>
+        <v>0.2939962084113799</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>319</v>
@@ -5789,19 +5790,19 @@
         <v>345281</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>315291</v>
+        <v>313105</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>376377</v>
+        <v>376644</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3686083748510322</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.336592120860744</v>
+        <v>0.3342588018156074</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4018053659000095</v>
+        <v>0.4020907068402991</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>674</v>
@@ -5810,19 +5811,19 @@
         <v>718827</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>671760</v>
+        <v>671676</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>763016</v>
+        <v>765826</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3093075910060331</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2890547006748771</v>
+        <v>0.2890183664719093</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3283217548160391</v>
+        <v>0.329531030439034</v>
       </c>
     </row>
     <row r="37">
@@ -5839,19 +5840,19 @@
         <v>532789</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>495380</v>
+        <v>494783</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>573646</v>
+        <v>573961</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3840544056812601</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3570891308669455</v>
+        <v>0.3566587671908026</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4135059461853281</v>
+        <v>0.4137330479978097</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>277</v>
@@ -5860,19 +5861,19 @@
         <v>296507</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>266243</v>
+        <v>264091</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>326119</v>
+        <v>324488</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3165395810379319</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2842309770453235</v>
+        <v>0.2819333648155049</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3481516527059624</v>
+        <v>0.3464102621640656</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>786</v>
@@ -5881,19 +5882,19 @@
         <v>829296</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>779838</v>
+        <v>781981</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>877498</v>
+        <v>879018</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3568416465472017</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3355601941906838</v>
+        <v>0.3364824441721764</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3775828955561259</v>
+        <v>0.3782365890527261</v>
       </c>
     </row>
     <row r="38">
@@ -6225,19 +6226,19 @@
         <v>18082</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10767</v>
+        <v>10986</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28829</v>
+        <v>29775</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07985316680592737</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0475460593819423</v>
+        <v>0.04851649861663502</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1273100225889172</v>
+        <v>0.1314901505517061</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -6246,19 +6247,19 @@
         <v>19332</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12579</v>
+        <v>12241</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28723</v>
+        <v>28571</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1232757546265115</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08021299620039611</v>
+        <v>0.07805796460688827</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1831564516015731</v>
+        <v>0.1821845637699203</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -6267,19 +6268,19 @@
         <v>37415</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27062</v>
+        <v>26566</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52119</v>
+        <v>52369</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09762039430330915</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07060869432119889</v>
+        <v>0.06931448157303027</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1359865632835278</v>
+        <v>0.1366387366772449</v>
       </c>
     </row>
     <row r="5">
@@ -6296,19 +6297,19 @@
         <v>29509</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20558</v>
+        <v>19915</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39680</v>
+        <v>40133</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1303123971246436</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09078469938579616</v>
+        <v>0.08794393329715472</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1752300464902386</v>
+        <v>0.1772320516173711</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -6317,19 +6318,19 @@
         <v>17380</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11542</v>
+        <v>10578</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26255</v>
+        <v>25549</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1108289538564476</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07359790979461218</v>
+        <v>0.06745244913232434</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1674190400300833</v>
+        <v>0.162918230266029</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>48</v>
@@ -6338,19 +6339,19 @@
         <v>46889</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>35935</v>
+        <v>35205</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>61328</v>
+        <v>60010</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1223403533945767</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09375840028557914</v>
+        <v>0.09185356046939624</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1600123526261139</v>
+        <v>0.1565741984159801</v>
       </c>
     </row>
     <row r="6">
@@ -6367,19 +6368,19 @@
         <v>4950</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1126</v>
+        <v>1990</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9904</v>
+        <v>10776</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02186097798603246</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.00497283790916973</v>
+        <v>0.008789751086644221</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04373821780257677</v>
+        <v>0.047587668600362</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -6391,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6400</v>
+        <v>5251</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.00672405996232222</v>
@@ -6400,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04081239805802388</v>
+        <v>0.03348124063671339</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -6409,19 +6410,19 @@
         <v>6005</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2072</v>
+        <v>2066</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>12249</v>
+        <v>11996</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01566740271484632</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.005407055534551465</v>
+        <v>0.00539092035979183</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03196046054708881</v>
+        <v>0.03129994856190115</v>
       </c>
     </row>
     <row r="7">
@@ -6441,7 +6442,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6281</v>
+        <v>7190</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009129914535506109</v>
@@ -6450,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02773641297611358</v>
+        <v>0.03175067834474526</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -6459,19 +6460,19 @@
         <v>9590</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4821</v>
+        <v>4806</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16320</v>
+        <v>16049</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06115133753633905</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03074266265662615</v>
+        <v>0.03064830814957347</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1040688801396235</v>
+        <v>0.1023416959123082</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -6480,19 +6481,19 @@
         <v>11657</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6611</v>
+        <v>6688</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19418</v>
+        <v>20241</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03041552885707312</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01724865599881898</v>
+        <v>0.01745050016260936</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05066312847296712</v>
+        <v>0.05281261515577595</v>
       </c>
     </row>
     <row r="8">
@@ -6509,19 +6510,19 @@
         <v>59743</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>46556</v>
+        <v>45599</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>73619</v>
+        <v>73797</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2638294289500778</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2055935032384875</v>
+        <v>0.2013689301939053</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3251080675564892</v>
+        <v>0.3258924300890185</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>46</v>
@@ -6530,19 +6531,19 @@
         <v>44113</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>34391</v>
+        <v>33503</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>55283</v>
+        <v>54684</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2812917335304315</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2192965117855104</v>
+        <v>0.2136369450972315</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3525234133823644</v>
+        <v>0.3486979623214617</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>104</v>
@@ -6551,19 +6552,19 @@
         <v>103856</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>87964</v>
+        <v>87529</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>123910</v>
+        <v>120599</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2709744830263031</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2295097167793148</v>
+        <v>0.2283758834143396</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3232988631670113</v>
+        <v>0.3146588193306867</v>
       </c>
     </row>
     <row r="9">
@@ -6580,19 +6581,19 @@
         <v>112094</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>97299</v>
+        <v>96796</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>128367</v>
+        <v>129575</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4950141145978126</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4296796720990999</v>
+        <v>0.4274559017331573</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5668765133510314</v>
+        <v>0.5722095793109561</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>68</v>
@@ -6601,19 +6602,19 @@
         <v>65352</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>53771</v>
+        <v>54427</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>77201</v>
+        <v>78309</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4167281604879481</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.342876012643082</v>
+        <v>0.3470638666784822</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4922838032137632</v>
+        <v>0.4993514313715611</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>173</v>
@@ -6622,19 +6623,19 @@
         <v>177446</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>156214</v>
+        <v>160860</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>195792</v>
+        <v>199091</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4629818377038916</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4075829873108671</v>
+        <v>0.4197054147211646</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5108498595953177</v>
+        <v>0.5194575560245467</v>
       </c>
     </row>
     <row r="10">
@@ -6726,19 +6727,19 @@
         <v>41624</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29438</v>
+        <v>30215</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>55807</v>
+        <v>55860</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1058273820481825</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07484326410782817</v>
+        <v>0.07681882943536583</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1418855297144251</v>
+        <v>0.1420191608249694</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>33</v>
@@ -6747,19 +6748,19 @@
         <v>35465</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>25473</v>
+        <v>24499</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>47763</v>
+        <v>47075</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1422133532092279</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1021453063900035</v>
+        <v>0.09824205199009789</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1915277265470877</v>
+        <v>0.1887708953864393</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>70</v>
@@ -6768,19 +6769,19 @@
         <v>77089</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>61929</v>
+        <v>61334</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>95444</v>
+        <v>96248</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1199456643419916</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09635791407441531</v>
+        <v>0.09543161298207085</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1485048495931421</v>
+        <v>0.1497547307111953</v>
       </c>
     </row>
     <row r="12">
@@ -6797,19 +6798,19 @@
         <v>68689</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>55103</v>
+        <v>54160</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>86709</v>
+        <v>86523</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1746384567550226</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1400948820837335</v>
+        <v>0.1376981193494045</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2204511323206133</v>
+        <v>0.2199781693007019</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>34</v>
@@ -6818,19 +6819,19 @@
         <v>35365</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>25477</v>
+        <v>25864</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>47641</v>
+        <v>48569</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1418131303895931</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1021629793923692</v>
+        <v>0.1037143265834741</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1910406030028269</v>
+        <v>0.1947598023975784</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>94</v>
@@ -6839,19 +6840,19 @@
         <v>104055</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>85533</v>
+        <v>83404</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>127021</v>
+        <v>124119</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1619017560644636</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1330833542744592</v>
+        <v>0.1297712052661679</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1976358925531048</v>
+        <v>0.1931207633262062</v>
       </c>
     </row>
     <row r="13">
@@ -6868,19 +6869,19 @@
         <v>9159</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4201</v>
+        <v>4010</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17471</v>
+        <v>16860</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02328738677951797</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01068126932015133</v>
+        <v>0.01019518362327041</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04441912657445464</v>
+        <v>0.04286664329617625</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -6892,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7390</v>
+        <v>7504</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008528100039068271</v>
@@ -6901,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02963531487144793</v>
+        <v>0.03008989528061433</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -6910,19 +6911,19 @@
         <v>11286</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5658</v>
+        <v>5456</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20605</v>
+        <v>20464</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01756057037176937</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008804007818874353</v>
+        <v>0.008488397824944092</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03205967731464579</v>
+        <v>0.03184082943596039</v>
       </c>
     </row>
     <row r="14">
@@ -6939,19 +6940,19 @@
         <v>8666</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3474</v>
+        <v>3998</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16381</v>
+        <v>16686</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02203164341955689</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008832677272050588</v>
+        <v>0.01016378957528239</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04164702316130012</v>
+        <v>0.04242216465519474</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -6960,19 +6961,19 @@
         <v>18863</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11500</v>
+        <v>11572</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28163</v>
+        <v>30167</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07564205857647846</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04611649487453576</v>
+        <v>0.04640334809708985</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1129338014387574</v>
+        <v>0.1209680860674629</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>26</v>
@@ -6981,19 +6982,19 @@
         <v>27529</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>17984</v>
+        <v>18431</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>39666</v>
+        <v>39250</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04283325873782657</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02798150653082284</v>
+        <v>0.028677261466483</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0617173521726838</v>
+        <v>0.06107095275220519</v>
       </c>
     </row>
     <row r="15">
@@ -7010,19 +7011,19 @@
         <v>120427</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>101208</v>
+        <v>101549</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>140003</v>
+        <v>141939</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3061770978583733</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2573156298682165</v>
+        <v>0.2581807027019013</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3559472430856926</v>
+        <v>0.3608712106502702</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>83</v>
@@ -7031,19 +7032,19 @@
         <v>82353</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>67530</v>
+        <v>68147</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>96033</v>
+        <v>96908</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3302339713170422</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.270794106126297</v>
+        <v>0.2732687855219993</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3850890313831268</v>
+        <v>0.3885988184753401</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>191</v>
@@ -7052,19 +7053,19 @@
         <v>202780</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>178384</v>
+        <v>179093</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>226909</v>
+        <v>226199</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3155115121878045</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2775531555710951</v>
+        <v>0.2786566938152256</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3530540929893091</v>
+        <v>0.3519493928056542</v>
       </c>
     </row>
     <row r="16">
@@ -7081,19 +7082,19 @@
         <v>144758</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>126293</v>
+        <v>124713</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>164012</v>
+        <v>164369</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3680380331393467</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3210922349205232</v>
+        <v>0.3170752712788823</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4169883297944426</v>
+        <v>0.4178978728251906</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>72</v>
@@ -7102,19 +7103,19 @@
         <v>75205</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>61736</v>
+        <v>60857</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>91912</v>
+        <v>89325</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3015693864685901</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2475619154662397</v>
+        <v>0.2440346648668358</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3685646950069453</v>
+        <v>0.3581931322244178</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>203</v>
@@ -7123,19 +7124,19 @@
         <v>219963</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>196714</v>
+        <v>198290</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>245653</v>
+        <v>246298</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3422472382961445</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3060727562398998</v>
+        <v>0.3085259781993312</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3822190968988184</v>
+        <v>0.3832227447506368</v>
       </c>
     </row>
     <row r="17">
@@ -7227,19 +7228,19 @@
         <v>47452</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>34864</v>
+        <v>34384</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>63226</v>
+        <v>63195</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1338494391882567</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09834208481906892</v>
+        <v>0.09698590548067722</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1783406864866749</v>
+        <v>0.1782534361673757</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>27</v>
@@ -7248,19 +7249,19 @@
         <v>29080</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20282</v>
+        <v>20227</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>40326</v>
+        <v>41303</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1083327543787425</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07555741760293595</v>
+        <v>0.07535336682174072</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1502252159902231</v>
+        <v>0.1538667603427563</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>65</v>
@@ -7269,19 +7270,19 @@
         <v>76533</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>59536</v>
+        <v>59271</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>95301</v>
+        <v>95042</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1228541618910733</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09557036254913059</v>
+        <v>0.09514438809269408</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1529817233097351</v>
+        <v>0.1525667982752876</v>
       </c>
     </row>
     <row r="19">
@@ -7298,19 +7299,19 @@
         <v>85515</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>69349</v>
+        <v>69313</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>102449</v>
+        <v>101422</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.241213727241632</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1956122246249637</v>
+        <v>0.1955113837126125</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2889794102764718</v>
+        <v>0.2860825399490251</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>64</v>
@@ -7319,19 +7320,19 @@
         <v>64135</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>51453</v>
+        <v>51421</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>78913</v>
+        <v>79186</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2389212349841569</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1916766859172329</v>
+        <v>0.1915577961807787</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2939753061747945</v>
+        <v>0.2949915918789844</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>142</v>
@@ -7340,19 +7341,19 @@
         <v>149650</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>127354</v>
+        <v>129510</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>169464</v>
+        <v>174047</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2402258799463914</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.204435707381679</v>
+        <v>0.2078959117481277</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2720321977659246</v>
+        <v>0.2793896503120887</v>
       </c>
     </row>
     <row r="20">
@@ -7369,19 +7370,19 @@
         <v>4865</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1384</v>
+        <v>1390</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12334</v>
+        <v>11570</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01372225988747021</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003904836254939108</v>
+        <v>0.003920826760042979</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0347896907705481</v>
+        <v>0.032635298305816</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -7393,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7880</v>
+        <v>6590</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.007365980414452167</v>
@@ -7402,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02935478996946491</v>
+        <v>0.02455125130406442</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -7411,19 +7412,19 @@
         <v>6842</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2484</v>
+        <v>2888</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14756</v>
+        <v>14076</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01098330473299147</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003986750230959353</v>
+        <v>0.004636532396287703</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0236872160629677</v>
+        <v>0.02259476402428858</v>
       </c>
     </row>
     <row r="21">
@@ -7440,19 +7441,19 @@
         <v>12085</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6362</v>
+        <v>6072</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>21253</v>
+        <v>20145</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03408808923571684</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01794585323334649</v>
+        <v>0.01712631808460023</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05994741505270186</v>
+        <v>0.05682319448197248</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>27</v>
@@ -7461,19 +7462,19 @@
         <v>28151</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>19079</v>
+        <v>18457</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>39032</v>
+        <v>39267</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1048716358537162</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07107399122732934</v>
+        <v>0.06875661591239469</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1454053931552201</v>
+        <v>0.1462817762634233</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>38</v>
@@ -7482,19 +7483,19 @@
         <v>40236</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>29328</v>
+        <v>28166</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>54502</v>
+        <v>55361</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.06458910176743965</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04707910638339992</v>
+        <v>0.04521324040657564</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08748976821641391</v>
+        <v>0.08886744578256647</v>
       </c>
     </row>
     <row r="22">
@@ -7511,19 +7512,19 @@
         <v>78363</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>63564</v>
+        <v>63806</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>96020</v>
+        <v>95151</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2210400958503114</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1792961932531233</v>
+        <v>0.1799768701270068</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2708447206155333</v>
+        <v>0.2683922517320923</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>67</v>
@@ -7532,19 +7533,19 @@
         <v>66402</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>54377</v>
+        <v>53286</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>81340</v>
+        <v>81221</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2473664658668306</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2025719414420619</v>
+        <v>0.1985066042543131</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3030156167248267</v>
+        <v>0.302572835723118</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>140</v>
@@ -7553,19 +7554,19 @@
         <v>144765</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>126113</v>
+        <v>124369</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>168592</v>
+        <v>166074</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2323842708762127</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2024421385398224</v>
+        <v>0.1996440060851463</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2706326411219957</v>
+        <v>0.2665909259802333</v>
       </c>
     </row>
     <row r="23">
@@ -7582,19 +7583,19 @@
         <v>126240</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>108391</v>
+        <v>107833</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>145539</v>
+        <v>145894</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3560863885966128</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3057381641103024</v>
+        <v>0.3041661170507386</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4105223024297238</v>
+        <v>0.4115236681042966</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>76</v>
@@ -7603,19 +7604,19 @@
         <v>78690</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>64930</v>
+        <v>64425</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>94910</v>
+        <v>94352</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2931419285021015</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2418823607049264</v>
+        <v>0.2400034661646021</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3535680722341358</v>
+        <v>0.3514887903578957</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>190</v>
@@ -7624,19 +7625,19 @@
         <v>204930</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>182802</v>
+        <v>182107</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>229279</v>
+        <v>227625</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3289632807858915</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2934436007203127</v>
+        <v>0.2923269060210931</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3680495394207642</v>
+        <v>0.3653953268313482</v>
       </c>
     </row>
     <row r="24">
@@ -7728,19 +7729,19 @@
         <v>39926</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27890</v>
+        <v>28644</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>52693</v>
+        <v>53760</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1074466756187851</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07505645142701844</v>
+        <v>0.07708585804248461</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1418042360575964</v>
+        <v>0.144676805787476</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>35</v>
@@ -7749,19 +7750,19 @@
         <v>35805</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>25200</v>
+        <v>24573</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>49037</v>
+        <v>48198</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.115538477328553</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08131763848597948</v>
+        <v>0.07929580121041764</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1582379648374286</v>
+        <v>0.155530202047926</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>72</v>
@@ -7770,19 +7771,19 @@
         <v>75731</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>59354</v>
+        <v>59936</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>93133</v>
+        <v>92093</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1111263083341139</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08709472930285819</v>
+        <v>0.08794976880991236</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1366629319063106</v>
+        <v>0.135136466374073</v>
       </c>
     </row>
     <row r="26">
@@ -7799,19 +7800,19 @@
         <v>68292</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>54201</v>
+        <v>54775</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>84618</v>
+        <v>84923</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1837848180127632</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1458641522403172</v>
+        <v>0.1474087456329904</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.227718924549402</v>
+        <v>0.2285413598745254</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>41</v>
@@ -7820,19 +7821,19 @@
         <v>44697</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>32482</v>
+        <v>32150</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>59209</v>
+        <v>58365</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1442321167429029</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1048173938295773</v>
+        <v>0.1037455409801929</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1910623678694157</v>
+        <v>0.1883372314237162</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>107</v>
@@ -7841,19 +7842,19 @@
         <v>112989</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>94243</v>
+        <v>95456</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>133446</v>
+        <v>132283</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1657987848903106</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1382903514154003</v>
+        <v>0.1400714059217487</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1958166120706294</v>
+        <v>0.1941102732037776</v>
       </c>
     </row>
     <row r="27">
@@ -7870,19 +7871,19 @@
         <v>7023</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2774</v>
+        <v>2795</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>13946</v>
+        <v>14707</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.01889891068566205</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.007464998664863671</v>
+        <v>0.007522985087050966</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03753030535113882</v>
+        <v>0.03957813681036958</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2</v>
@@ -7894,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>6416</v>
+        <v>6739</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.006767029619098084</v>
@@ -7903,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02070410170432668</v>
+        <v>0.02174698791400901</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>9</v>
@@ -7912,19 +7913,19 @@
         <v>9120</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4545</v>
+        <v>4431</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>17341</v>
+        <v>17172</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01338210885682844</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.006669997056999869</v>
+        <v>0.006502414341876083</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02544585303242992</v>
+        <v>0.02519820473943081</v>
       </c>
     </row>
     <row r="28">
@@ -7941,19 +7942,19 @@
         <v>8184</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4048</v>
+        <v>3593</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>15465</v>
+        <v>15257</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02202396545698346</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01089483270638146</v>
+        <v>0.009669295345594596</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04161898377384533</v>
+        <v>0.04105912183537481</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -7962,19 +7963,19 @@
         <v>17378</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>10499</v>
+        <v>10480</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>26724</v>
+        <v>27277</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05607840551812764</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0338790771790371</v>
+        <v>0.0338174261319817</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08623580301518963</v>
+        <v>0.08801965909570268</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>24</v>
@@ -7983,19 +7984,19 @@
         <v>25562</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>17126</v>
+        <v>16843</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>37751</v>
+        <v>37709</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03750974183233944</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0251305649496067</v>
+        <v>0.02471574580459812</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05539522623145538</v>
+        <v>0.05533389951974846</v>
       </c>
     </row>
     <row r="29">
@@ -8012,19 +8013,19 @@
         <v>120373</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>102301</v>
+        <v>101085</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>138395</v>
+        <v>138935</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3239425316757861</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2753080911062579</v>
+        <v>0.2720347440157142</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3724419912927985</v>
+        <v>0.3738945998963324</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>129</v>
@@ -8033,19 +8034,19 @@
         <v>138798</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>120433</v>
+        <v>121385</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>156440</v>
+        <v>157974</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4478868792573822</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3886256119530686</v>
+        <v>0.39169627197468</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5048146108241943</v>
+        <v>0.5097671765904226</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>245</v>
@@ -8054,19 +8055,19 @@
         <v>259171</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>234486</v>
+        <v>234362</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>286828</v>
+        <v>285982</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3803044758508125</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3440816083708215</v>
+        <v>0.3438997830485879</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4208881735164178</v>
+        <v>0.4196466723101333</v>
       </c>
     </row>
     <row r="30">
@@ -8083,19 +8084,19 @@
         <v>127790</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>110098</v>
+        <v>108862</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>146333</v>
+        <v>146042</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3439030985500201</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2962891849695122</v>
+        <v>0.2929649770079127</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3938035335043256</v>
+        <v>0.393020272842583</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>69</v>
@@ -8104,19 +8105,19 @@
         <v>71120</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>56081</v>
+        <v>56501</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>85503</v>
+        <v>85968</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2294970915339362</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1809673086630471</v>
+        <v>0.1823224522839473</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2759101983200645</v>
+        <v>0.2774116575513829</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>198</v>
@@ -8125,19 +8126,19 @@
         <v>198910</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>176686</v>
+        <v>175690</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>222471</v>
+        <v>221774</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2918785802355952</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2592668124566517</v>
+        <v>0.2578054483157493</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3264513185250029</v>
+        <v>0.3254289885711034</v>
       </c>
     </row>
     <row r="31">
@@ -8229,19 +8230,19 @@
         <v>147085</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>125536</v>
+        <v>122537</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>172252</v>
+        <v>173600</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1092856059122514</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09327434354904124</v>
+        <v>0.09104640203493046</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1279845099834737</v>
+        <v>0.12898626118316</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>114</v>
@@ -8250,19 +8251,19 @@
         <v>119682</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>100932</v>
+        <v>100747</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>146362</v>
+        <v>142332</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1215628997732876</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1025180276895081</v>
+        <v>0.1023298718118601</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1486620351215608</v>
+        <v>0.1445688217670818</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>242</v>
@@ -8271,19 +8272,19 @@
         <v>266768</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>236318</v>
+        <v>234367</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>301410</v>
+        <v>300286</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.11447240205691</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1014060609633572</v>
+        <v>0.1005688799400355</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.12933781951318</v>
+        <v>0.1288552905309372</v>
       </c>
     </row>
     <row r="33">
@@ -8300,19 +8301,19 @@
         <v>252006</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>224749</v>
+        <v>224978</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>283693</v>
+        <v>281867</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1872425102673702</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1669903650910028</v>
+        <v>0.167160785688356</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2107861381458858</v>
+        <v>0.2094297319267013</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>158</v>
@@ -8321,19 +8322,19 @@
         <v>161577</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>137690</v>
+        <v>139582</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>184833</v>
+        <v>185166</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.164116038012222</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1398532007438865</v>
+        <v>0.1417756826335652</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.187737417228872</v>
+        <v>0.1880753503457587</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>391</v>
@@ -8342,19 +8343,19 @@
         <v>413583</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>377428</v>
+        <v>376278</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>450189</v>
+        <v>450426</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1774722548275095</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1619576375222415</v>
+        <v>0.1614645194721412</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1931801964669145</v>
+        <v>0.1932820105250461</v>
       </c>
     </row>
     <row r="34">
@@ -8371,19 +8372,19 @@
         <v>25997</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>16828</v>
+        <v>16459</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>38717</v>
+        <v>36609</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01931619280087727</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01250321236964122</v>
+        <v>0.01222910359520521</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02876713381941398</v>
+        <v>0.0272006894629742</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>7</v>
@@ -8392,19 +8393,19 @@
         <v>7256</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>3157</v>
+        <v>3112</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>14376</v>
+        <v>14187</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.007369563566689136</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.003206957310554378</v>
+        <v>0.003160782400191628</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01460227072135296</v>
+        <v>0.0144094705990298</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>31</v>
@@ -8413,19 +8414,19 @@
         <v>33253</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>22330</v>
+        <v>22693</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>45976</v>
+        <v>46630</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01426909275139431</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.009581939933600202</v>
+        <v>0.009737752513282627</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01972887074465384</v>
+        <v>0.02000955682866761</v>
       </c>
     </row>
     <row r="35">
@@ -8442,19 +8443,19 @@
         <v>31002</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>21049</v>
+        <v>20741</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>44564</v>
+        <v>43332</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02303460191392058</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01563975951364337</v>
+        <v>0.0154108985849462</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03311113964230895</v>
+        <v>0.03219603771691784</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>71</v>
@@ -8463,19 +8464,19 @@
         <v>73983</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>59297</v>
+        <v>58642</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>92938</v>
+        <v>91809</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0751454905423445</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0602286706418031</v>
+        <v>0.05956326312604734</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.09439851731670347</v>
+        <v>0.09325126848099763</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>100</v>
@@ -8484,19 +8485,19 @@
         <v>104985</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>86020</v>
+        <v>85724</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>127492</v>
+        <v>125612</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04504992217032034</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03691189125684591</v>
+        <v>0.03678477959578264</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.0547077996144265</v>
+        <v>0.05390137468047713</v>
       </c>
     </row>
     <row r="36">
@@ -8513,19 +8514,19 @@
         <v>378906</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>345805</v>
+        <v>342566</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>410665</v>
+        <v>412570</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2815308278157783</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2569358227260005</v>
+        <v>0.2545297447767401</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3051274885938572</v>
+        <v>0.3065431834007104</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>325</v>
@@ -8534,19 +8535,19 @@
         <v>331665</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>303328</v>
+        <v>303018</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>360434</v>
+        <v>361080</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3368769701608504</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3080940818617044</v>
+        <v>0.3077795474968257</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3660975978593167</v>
+        <v>0.3667536623194506</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>680</v>
@@ -8555,19 +8556,19 @@
         <v>710572</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>668062</v>
+        <v>666563</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>753277</v>
+        <v>758154</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3049129477671629</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2866715916640611</v>
+        <v>0.2860284440654454</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3232380381707146</v>
+        <v>0.3253307564309408</v>
       </c>
     </row>
     <row r="37">
@@ -8584,19 +8585,19 @@
         <v>510883</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>468824</v>
+        <v>472421</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>546036</v>
+        <v>547125</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3795902612898022</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3483402527970799</v>
+        <v>0.3510128816610338</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4057098432940295</v>
+        <v>0.4065184286426269</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>285</v>
@@ -8605,19 +8606,19 @@
         <v>290366</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>260171</v>
+        <v>263198</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>317672</v>
+        <v>318222</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2949290379446064</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.264259625455553</v>
+        <v>0.2673335440170316</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.322663488722747</v>
+        <v>0.3232226957286489</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>764</v>
@@ -8626,19 +8627,19 @@
         <v>801249</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>758280</v>
+        <v>758285</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>847215</v>
+        <v>844287</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3438233804267029</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3253850789186759</v>
+        <v>0.3253872207068373</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3635479775889582</v>
+        <v>0.3622912445172978</v>
       </c>
     </row>
     <row r="38">
@@ -8701,6 +8702,2735 @@
       </c>
       <c r="T38" s="5" t="n">
         <v>2330409</v>
+      </c>
+      <c r="U38" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W38" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A11:A17"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población menor de 65 años que trabaja actualmente según el tipo de jornada que tiene en su trabajo en 2023 (tasa de respuesta: 99,43%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Otra posibilidad</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>19671</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>12549</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>29663</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.05411228305228236</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.03451901479100289</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.08159830513839124</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>23214</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>16613</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>33822</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.08388268647260963</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0.0600323247296292</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0.1222184562481303</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <v>42885</v>
+      </c>
+      <c r="S4" s="5" t="n">
+        <v>31378</v>
+      </c>
+      <c r="T4" s="5" t="n">
+        <v>56518</v>
+      </c>
+      <c r="U4" s="6" t="n">
+        <v>0.06697971360440104</v>
+      </c>
+      <c r="V4" s="6" t="n">
+        <v>0.04900693015048616</v>
+      </c>
+      <c r="W4" s="6" t="n">
+        <v>0.08827286221748466</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Turnos</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>39544</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>29273</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>53927</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.1087778065129924</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.08052522926614919</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.1483439320774068</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>63</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>46031</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>36553</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>59571</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.166335088049825</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>0.1320858438484856</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>0.2152628495182698</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>102</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>85575</v>
+      </c>
+      <c r="S5" s="5" t="n">
+        <v>69560</v>
+      </c>
+      <c r="T5" s="5" t="n">
+        <v>105074</v>
+      </c>
+      <c r="U5" s="6" t="n">
+        <v>0.133655343860647</v>
+      </c>
+      <c r="V5" s="6" t="n">
+        <v>0.1086418694132089</v>
+      </c>
+      <c r="W5" s="6" t="n">
+        <v>0.1641091696033276</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua nocturna</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3483</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1171</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>8933</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.009580529393812697</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.003221071610778601</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.02457321384185293</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6" t="inlineStr"/>
+      <c r="P6" s="6" t="inlineStr"/>
+      <c r="Q6" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>3483</v>
+      </c>
+      <c r="S6" s="5" t="n">
+        <v>1176</v>
+      </c>
+      <c r="T6" s="5" t="n">
+        <v>8943</v>
+      </c>
+      <c r="U6" s="6" t="n">
+        <v>0.005439611486625618</v>
+      </c>
+      <c r="V6" s="6" t="n">
+        <v>0.001836079656774468</v>
+      </c>
+      <c r="W6" s="6" t="n">
+        <v>0.01396778575704598</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua de tarde</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1133</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>5416</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.003115579222737668</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.01489910688002619</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>9726</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>4951</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>18943</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.03514636313538842</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>0.01788924672474245</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>0.06844994086770696</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>10859</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>5707</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>19608</v>
+      </c>
+      <c r="U7" s="6" t="n">
+        <v>0.01695999650209959</v>
+      </c>
+      <c r="V7" s="6" t="n">
+        <v>0.00891346402344307</v>
+      </c>
+      <c r="W7" s="6" t="n">
+        <v>0.03062487192412564</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua de mañana</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>149</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>166647</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>146603</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>189717</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.4584134517391352</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.4032757860699174</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.5218745601259278</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>205</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>135642</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>120651</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>148808</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.4901459357822585</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>0.4359741485641376</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>0.5377208748877851</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>354</v>
+      </c>
+      <c r="R8" s="5" t="n">
+        <v>302290</v>
+      </c>
+      <c r="S8" s="5" t="n">
+        <v>275720</v>
+      </c>
+      <c r="T8" s="5" t="n">
+        <v>326091</v>
+      </c>
+      <c r="U8" s="6" t="n">
+        <v>0.4721289371796954</v>
+      </c>
+      <c r="V8" s="6" t="n">
+        <v>0.4306308985264608</v>
+      </c>
+      <c r="W8" s="6" t="n">
+        <v>0.5093035918136491</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Jornada partida</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>133052</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>111596</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>153968</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.3660003500790397</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.3069777013965136</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.4235362528972539</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>93</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>62125</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>51281</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>75443</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.2244899265599185</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>0.1853042066563041</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>0.2726169005485012</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>215</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>195177</v>
+      </c>
+      <c r="S9" s="5" t="n">
+        <v>174317</v>
+      </c>
+      <c r="T9" s="5" t="n">
+        <v>223026</v>
+      </c>
+      <c r="U9" s="6" t="n">
+        <v>0.3048363973665313</v>
+      </c>
+      <c r="V9" s="6" t="n">
+        <v>0.2722566177648212</v>
+      </c>
+      <c r="W9" s="6" t="n">
+        <v>0.348332201503664</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>335</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>363530</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>363530</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>363530</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>406</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>276738</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>276738</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>276738</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>741</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>640269</v>
+      </c>
+      <c r="S10" s="5" t="n">
+        <v>640269</v>
+      </c>
+      <c r="T10" s="5" t="n">
+        <v>640269</v>
+      </c>
+      <c r="U10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Otra posibilidad</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>49229</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>36555</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>65482</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.07955581392746691</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.05907346249990528</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.1058200068257117</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>33999</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>24824</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>44768</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>0.07666300360907102</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>0.05597522880969676</v>
+      </c>
+      <c r="P11" s="6" t="n">
+        <v>0.1009457977533406</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>83228</v>
+      </c>
+      <c r="S11" s="5" t="n">
+        <v>66472</v>
+      </c>
+      <c r="T11" s="5" t="n">
+        <v>101477</v>
+      </c>
+      <c r="U11" s="6" t="n">
+        <v>0.07834812861746422</v>
+      </c>
+      <c r="V11" s="6" t="n">
+        <v>0.06257407838241968</v>
+      </c>
+      <c r="W11" s="6" t="n">
+        <v>0.09552704932050511</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Turnos</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>115513</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>95306</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>140124</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.1866710384682683</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.154016242143013</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.2264429553712805</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>96282</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>80874</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>112482</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>0.2171052271754241</v>
+      </c>
+      <c r="O12" s="6" t="n">
+        <v>0.182361724558984</v>
+      </c>
+      <c r="P12" s="6" t="n">
+        <v>0.2536353272880436</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>218</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>211795</v>
+      </c>
+      <c r="S12" s="5" t="n">
+        <v>184304</v>
+      </c>
+      <c r="T12" s="5" t="n">
+        <v>242472</v>
+      </c>
+      <c r="U12" s="6" t="n">
+        <v>0.1993766494755821</v>
+      </c>
+      <c r="V12" s="6" t="n">
+        <v>0.1734975173615959</v>
+      </c>
+      <c r="W12" s="6" t="n">
+        <v>0.2282550318244428</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua nocturna</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>8754</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3804</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>16163</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.01414602348162565</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.006146923694619296</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.02611987110400473</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>3431</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>886</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>8613</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.007737052465668174</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>0.001998780416977719</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>0.01942205259538966</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="R13" s="5" t="n">
+        <v>12185</v>
+      </c>
+      <c r="S13" s="5" t="n">
+        <v>6559</v>
+      </c>
+      <c r="T13" s="5" t="n">
+        <v>20334</v>
+      </c>
+      <c r="U13" s="6" t="n">
+        <v>0.0114704176532778</v>
+      </c>
+      <c r="V13" s="6" t="n">
+        <v>0.006174055265307669</v>
+      </c>
+      <c r="W13" s="6" t="n">
+        <v>0.01914203637972439</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua de tarde</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>14325</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>7238</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>26403</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.02314959093419364</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.01169747909132551</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.04266751499343766</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>17608</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>10651</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>31127</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.03970514881770811</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>0.02401603922713988</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>0.07018842320350607</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="R14" s="5" t="n">
+        <v>31934</v>
+      </c>
+      <c r="S14" s="5" t="n">
+        <v>20887</v>
+      </c>
+      <c r="T14" s="5" t="n">
+        <v>49752</v>
+      </c>
+      <c r="U14" s="6" t="n">
+        <v>0.03006117581332479</v>
+      </c>
+      <c r="V14" s="6" t="n">
+        <v>0.01966268491902676</v>
+      </c>
+      <c r="W14" s="6" t="n">
+        <v>0.0468345039989197</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua de mañana</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>216</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>258147</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>231240</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>289446</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.4171706603371642</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.3736885589814452</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.4677509118611783</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>277</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>201647</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>183313</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>220390</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.4546911214696305</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>0.4133505711351909</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>0.4969546996022758</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>493</v>
+      </c>
+      <c r="R15" s="5" t="n">
+        <v>459794</v>
+      </c>
+      <c r="S15" s="5" t="n">
+        <v>427601</v>
+      </c>
+      <c r="T15" s="5" t="n">
+        <v>497347</v>
+      </c>
+      <c r="U15" s="6" t="n">
+        <v>0.4328346357613576</v>
+      </c>
+      <c r="V15" s="6" t="n">
+        <v>0.4025291434611445</v>
+      </c>
+      <c r="W15" s="6" t="n">
+        <v>0.4681860153894532</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Jornada partida</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>144</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>172836</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>147027</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>198497</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.2793068728512813</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.2375990569937303</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.3207755488704533</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>90514</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>77369</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>108077</v>
+      </c>
+      <c r="N16" s="6" t="n">
+        <v>0.2040984464624979</v>
+      </c>
+      <c r="O16" s="6" t="n">
+        <v>0.1744580681035827</v>
+      </c>
+      <c r="P16" s="6" t="n">
+        <v>0.2437020039972741</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>262</v>
+      </c>
+      <c r="R16" s="5" t="n">
+        <v>263350</v>
+      </c>
+      <c r="S16" s="5" t="n">
+        <v>235182</v>
+      </c>
+      <c r="T16" s="5" t="n">
+        <v>296707</v>
+      </c>
+      <c r="U16" s="6" t="n">
+        <v>0.2479089926789934</v>
+      </c>
+      <c r="V16" s="6" t="n">
+        <v>0.2213926650800853</v>
+      </c>
+      <c r="W16" s="6" t="n">
+        <v>0.2793101798376327</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>516</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>618804</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>618804</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>618804</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>587</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>443481</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>443481</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>443481</v>
+      </c>
+      <c r="N17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>1103</v>
+      </c>
+      <c r="R17" s="5" t="n">
+        <v>1062285</v>
+      </c>
+      <c r="S17" s="5" t="n">
+        <v>1062285</v>
+      </c>
+      <c r="T17" s="5" t="n">
+        <v>1062285</v>
+      </c>
+      <c r="U17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Otra posibilidad</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>26672</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>16768</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>41933</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.0651121696106331</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.04093565620575225</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0.1023698869102132</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>30955</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>22414</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>43643</v>
+      </c>
+      <c r="N18" s="6" t="n">
+        <v>0.09304330732852378</v>
+      </c>
+      <c r="O18" s="6" t="n">
+        <v>0.06737077122683417</v>
+      </c>
+      <c r="P18" s="6" t="n">
+        <v>0.1311797394376379</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="R18" s="5" t="n">
+        <v>57627</v>
+      </c>
+      <c r="S18" s="5" t="n">
+        <v>43240</v>
+      </c>
+      <c r="T18" s="5" t="n">
+        <v>76155</v>
+      </c>
+      <c r="U18" s="6" t="n">
+        <v>0.07763041689307221</v>
+      </c>
+      <c r="V18" s="6" t="n">
+        <v>0.058249298429933</v>
+      </c>
+      <c r="W18" s="6" t="n">
+        <v>0.1025904884397669</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Turnos</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>57</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>79968</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>61510</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>101615</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.1952217144048792</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.150161655157693</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0.2480676273342874</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>78</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>62091</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>50733</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>75517</v>
+      </c>
+      <c r="N19" s="6" t="n">
+        <v>0.1866296253482331</v>
+      </c>
+      <c r="O19" s="6" t="n">
+        <v>0.1524923592281441</v>
+      </c>
+      <c r="P19" s="6" t="n">
+        <v>0.2269848473569853</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>135</v>
+      </c>
+      <c r="R19" s="5" t="n">
+        <v>142058</v>
+      </c>
+      <c r="S19" s="5" t="n">
+        <v>121258</v>
+      </c>
+      <c r="T19" s="5" t="n">
+        <v>168396</v>
+      </c>
+      <c r="U19" s="6" t="n">
+        <v>0.1913708904044325</v>
+      </c>
+      <c r="V19" s="6" t="n">
+        <v>0.1633504859328883</v>
+      </c>
+      <c r="W19" s="6" t="n">
+        <v>0.2268507087199186</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua nocturna</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>2260</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>8993</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0.005516660395679583</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>0.02195333479980515</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5" t="inlineStr"/>
+      <c r="M20" s="5" t="inlineStr"/>
+      <c r="N20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6" t="inlineStr"/>
+      <c r="P20" s="6" t="inlineStr"/>
+      <c r="Q20" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="5" t="n">
+        <v>2260</v>
+      </c>
+      <c r="S20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" s="5" t="n">
+        <v>8060</v>
+      </c>
+      <c r="U20" s="6" t="n">
+        <v>0.003044189717833861</v>
+      </c>
+      <c r="V20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="6" t="n">
+        <v>0.01085771253421361</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua de tarde</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>2287</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>8740</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.005583755837234876</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>0.0213355967280354</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>16565</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>9954</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>26485</v>
+      </c>
+      <c r="N21" s="6" t="n">
+        <v>0.04979093082754983</v>
+      </c>
+      <c r="O21" s="6" t="n">
+        <v>0.02991835174376493</v>
+      </c>
+      <c r="P21" s="6" t="n">
+        <v>0.0796063222283636</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="R21" s="5" t="n">
+        <v>18852</v>
+      </c>
+      <c r="S21" s="5" t="n">
+        <v>11775</v>
+      </c>
+      <c r="T21" s="5" t="n">
+        <v>30089</v>
+      </c>
+      <c r="U21" s="6" t="n">
+        <v>0.0253966382832068</v>
+      </c>
+      <c r="V21" s="6" t="n">
+        <v>0.01586183226219126</v>
+      </c>
+      <c r="W21" s="6" t="n">
+        <v>0.04053367993032499</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua de mañana</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>166819</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>144181</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>192273</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.4072490461082414</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.3519830937181397</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.4693877749129443</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>175</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>135129</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>117602</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>150728</v>
+      </c>
+      <c r="N22" s="6" t="n">
+        <v>0.4061640479803046</v>
+      </c>
+      <c r="O22" s="6" t="n">
+        <v>0.35348146218555</v>
+      </c>
+      <c r="P22" s="6" t="n">
+        <v>0.4530501498747065</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>304</v>
+      </c>
+      <c r="R22" s="5" t="n">
+        <v>301948</v>
+      </c>
+      <c r="S22" s="5" t="n">
+        <v>271771</v>
+      </c>
+      <c r="T22" s="5" t="n">
+        <v>327654</v>
+      </c>
+      <c r="U22" s="6" t="n">
+        <v>0.4067627689288554</v>
+      </c>
+      <c r="V22" s="6" t="n">
+        <v>0.3661105373369883</v>
+      </c>
+      <c r="W22" s="6" t="n">
+        <v>0.4413916699470484</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Jornada partida</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>110</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>131619</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>110811</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>153821</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.321316653643332</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.2705172417304688</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>0.3755176158503051</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>108</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>87955</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>74280</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>104102</v>
+      </c>
+      <c r="N23" s="6" t="n">
+        <v>0.2643720885153887</v>
+      </c>
+      <c r="O23" s="6" t="n">
+        <v>0.2232678608533687</v>
+      </c>
+      <c r="P23" s="6" t="n">
+        <v>0.3129037111903573</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>218</v>
+      </c>
+      <c r="R23" s="5" t="n">
+        <v>219575</v>
+      </c>
+      <c r="S23" s="5" t="n">
+        <v>195647</v>
+      </c>
+      <c r="T23" s="5" t="n">
+        <v>248308</v>
+      </c>
+      <c r="U23" s="6" t="n">
+        <v>0.2957950957725992</v>
+      </c>
+      <c r="V23" s="6" t="n">
+        <v>0.2635615669251092</v>
+      </c>
+      <c r="W23" s="6" t="n">
+        <v>0.334502824829551</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>320</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>409625</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>409625</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>409625</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>415</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>332695</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>332695</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>332695</v>
+      </c>
+      <c r="N24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>735</v>
+      </c>
+      <c r="R24" s="5" t="n">
+        <v>742320</v>
+      </c>
+      <c r="S24" s="5" t="n">
+        <v>742320</v>
+      </c>
+      <c r="T24" s="5" t="n">
+        <v>742320</v>
+      </c>
+      <c r="U24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W24" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Otra posibilidad</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>38500</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>27259</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>54075</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>0.07553784923386907</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>0.05348267413057418</v>
+      </c>
+      <c r="I25" s="6" t="n">
+        <v>0.1060951096298758</v>
+      </c>
+      <c r="J25" s="5" t="n">
+        <v>57</v>
+      </c>
+      <c r="K25" s="5" t="n">
+        <v>46816</v>
+      </c>
+      <c r="L25" s="5" t="n">
+        <v>35876</v>
+      </c>
+      <c r="M25" s="5" t="n">
+        <v>59467</v>
+      </c>
+      <c r="N25" s="6" t="n">
+        <v>0.1058839534309536</v>
+      </c>
+      <c r="O25" s="6" t="n">
+        <v>0.08114147644459035</v>
+      </c>
+      <c r="P25" s="6" t="n">
+        <v>0.1344984493168413</v>
+      </c>
+      <c r="Q25" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="R25" s="5" t="n">
+        <v>85316</v>
+      </c>
+      <c r="S25" s="5" t="n">
+        <v>68440</v>
+      </c>
+      <c r="T25" s="5" t="n">
+        <v>106226</v>
+      </c>
+      <c r="U25" s="6" t="n">
+        <v>0.08963426861695804</v>
+      </c>
+      <c r="V25" s="6" t="n">
+        <v>0.071904506886849</v>
+      </c>
+      <c r="W25" s="6" t="n">
+        <v>0.1116030705286982</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>Turnos</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>101</v>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>115803</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>96503</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>137415</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>0.2272063770758332</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>0.1893404749087298</v>
+      </c>
+      <c r="I26" s="6" t="n">
+        <v>0.2696103451673586</v>
+      </c>
+      <c r="J26" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="K26" s="5" t="n">
+        <v>93327</v>
+      </c>
+      <c r="L26" s="5" t="n">
+        <v>77761</v>
+      </c>
+      <c r="M26" s="5" t="n">
+        <v>108244</v>
+      </c>
+      <c r="N26" s="6" t="n">
+        <v>0.211078804373477</v>
+      </c>
+      <c r="O26" s="6" t="n">
+        <v>0.1758743765333737</v>
+      </c>
+      <c r="P26" s="6" t="n">
+        <v>0.2448176462738795</v>
+      </c>
+      <c r="Q26" s="5" t="n">
+        <v>224</v>
+      </c>
+      <c r="R26" s="5" t="n">
+        <v>209129</v>
+      </c>
+      <c r="S26" s="5" t="n">
+        <v>184701</v>
+      </c>
+      <c r="T26" s="5" t="n">
+        <v>237389</v>
+      </c>
+      <c r="U26" s="6" t="n">
+        <v>0.2197147719931118</v>
+      </c>
+      <c r="V26" s="6" t="n">
+        <v>0.1940498268907718</v>
+      </c>
+      <c r="W26" s="6" t="n">
+        <v>0.24940443199322</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua nocturna</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>11477</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>5505</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>22114</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>0.02251748870229137</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>0.01080186679905879</v>
+      </c>
+      <c r="I27" s="6" t="n">
+        <v>0.04338771642155678</v>
+      </c>
+      <c r="J27" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" s="5" t="n">
+        <v>4505</v>
+      </c>
+      <c r="L27" s="5" t="n">
+        <v>1366</v>
+      </c>
+      <c r="M27" s="5" t="n">
+        <v>12003</v>
+      </c>
+      <c r="N27" s="6" t="n">
+        <v>0.01018962206474095</v>
+      </c>
+      <c r="O27" s="6" t="n">
+        <v>0.003090048301680252</v>
+      </c>
+      <c r="P27" s="6" t="n">
+        <v>0.02714833084816636</v>
+      </c>
+      <c r="Q27" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="R27" s="5" t="n">
+        <v>15982</v>
+      </c>
+      <c r="S27" s="5" t="n">
+        <v>9297</v>
+      </c>
+      <c r="T27" s="5" t="n">
+        <v>27462</v>
+      </c>
+      <c r="U27" s="6" t="n">
+        <v>0.01679092897346803</v>
+      </c>
+      <c r="V27" s="6" t="n">
+        <v>0.009767594304936582</v>
+      </c>
+      <c r="W27" s="6" t="n">
+        <v>0.02885153347179353</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua de tarde</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>14961</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>7769</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>24701</v>
+      </c>
+      <c r="G28" s="6" t="n">
+        <v>0.02935284413062615</v>
+      </c>
+      <c r="H28" s="6" t="n">
+        <v>0.01524354432640683</v>
+      </c>
+      <c r="I28" s="6" t="n">
+        <v>0.04846432372644653</v>
+      </c>
+      <c r="J28" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="K28" s="5" t="n">
+        <v>19349</v>
+      </c>
+      <c r="L28" s="5" t="n">
+        <v>12420</v>
+      </c>
+      <c r="M28" s="5" t="n">
+        <v>28625</v>
+      </c>
+      <c r="N28" s="6" t="n">
+        <v>0.04376283599413212</v>
+      </c>
+      <c r="O28" s="6" t="n">
+        <v>0.02809047823224492</v>
+      </c>
+      <c r="P28" s="6" t="n">
+        <v>0.06474092714522424</v>
+      </c>
+      <c r="Q28" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="R28" s="5" t="n">
+        <v>34310</v>
+      </c>
+      <c r="S28" s="5" t="n">
+        <v>24183</v>
+      </c>
+      <c r="T28" s="5" t="n">
+        <v>46947</v>
+      </c>
+      <c r="U28" s="6" t="n">
+        <v>0.03604659589841963</v>
+      </c>
+      <c r="V28" s="6" t="n">
+        <v>0.02540757706047164</v>
+      </c>
+      <c r="W28" s="6" t="n">
+        <v>0.04932338463378363</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua de mañana</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>206</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>219474</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>195343</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>244170</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <v>0.4306111214110115</v>
+      </c>
+      <c r="H29" s="6" t="n">
+        <v>0.3832661727297182</v>
+      </c>
+      <c r="I29" s="6" t="n">
+        <v>0.4790658843453525</v>
+      </c>
+      <c r="J29" s="5" t="n">
+        <v>267</v>
+      </c>
+      <c r="K29" s="5" t="n">
+        <v>191563</v>
+      </c>
+      <c r="L29" s="5" t="n">
+        <v>174029</v>
+      </c>
+      <c r="M29" s="5" t="n">
+        <v>209768</v>
+      </c>
+      <c r="N29" s="6" t="n">
+        <v>0.43326057150946</v>
+      </c>
+      <c r="O29" s="6" t="n">
+        <v>0.3936054153557856</v>
+      </c>
+      <c r="P29" s="6" t="n">
+        <v>0.4744357182509328</v>
+      </c>
+      <c r="Q29" s="5" t="n">
+        <v>473</v>
+      </c>
+      <c r="R29" s="5" t="n">
+        <v>411037</v>
+      </c>
+      <c r="S29" s="5" t="n">
+        <v>380075</v>
+      </c>
+      <c r="T29" s="5" t="n">
+        <v>441694</v>
+      </c>
+      <c r="U29" s="6" t="n">
+        <v>0.4318418480795729</v>
+      </c>
+      <c r="V29" s="6" t="n">
+        <v>0.3993136150768829</v>
+      </c>
+      <c r="W29" s="6" t="n">
+        <v>0.464050891234251</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Jornada partida</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>103</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>109466</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>91630</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>130205</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <v>0.2147743194463688</v>
+      </c>
+      <c r="H30" s="6" t="n">
+        <v>0.1797789430682845</v>
+      </c>
+      <c r="I30" s="6" t="n">
+        <v>0.2554635448492432</v>
+      </c>
+      <c r="J30" s="5" t="n">
+        <v>117</v>
+      </c>
+      <c r="K30" s="5" t="n">
+        <v>86582</v>
+      </c>
+      <c r="L30" s="5" t="n">
+        <v>73980</v>
+      </c>
+      <c r="M30" s="5" t="n">
+        <v>104047</v>
+      </c>
+      <c r="N30" s="6" t="n">
+        <v>0.1958242126272364</v>
+      </c>
+      <c r="O30" s="6" t="n">
+        <v>0.167321430108347</v>
+      </c>
+      <c r="P30" s="6" t="n">
+        <v>0.2353242192171495</v>
+      </c>
+      <c r="Q30" s="5" t="n">
+        <v>220</v>
+      </c>
+      <c r="R30" s="5" t="n">
+        <v>196048</v>
+      </c>
+      <c r="S30" s="5" t="n">
+        <v>172170</v>
+      </c>
+      <c r="T30" s="5" t="n">
+        <v>221039</v>
+      </c>
+      <c r="U30" s="6" t="n">
+        <v>0.2059715864384696</v>
+      </c>
+      <c r="V30" s="6" t="n">
+        <v>0.1808851041527913</v>
+      </c>
+      <c r="W30" s="6" t="n">
+        <v>0.2322268400323634</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>467</v>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>509680</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>509680</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>509680</v>
+      </c>
+      <c r="G31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5" t="n">
+        <v>592</v>
+      </c>
+      <c r="K31" s="5" t="n">
+        <v>442142</v>
+      </c>
+      <c r="L31" s="5" t="n">
+        <v>442142</v>
+      </c>
+      <c r="M31" s="5" t="n">
+        <v>442142</v>
+      </c>
+      <c r="N31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="5" t="n">
+        <v>1059</v>
+      </c>
+      <c r="R31" s="5" t="n">
+        <v>951822</v>
+      </c>
+      <c r="S31" s="5" t="n">
+        <v>951822</v>
+      </c>
+      <c r="T31" s="5" t="n">
+        <v>951822</v>
+      </c>
+      <c r="U31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W31" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Otra posibilidad</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>117</v>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>134073</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>112613</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>161123</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <v>0.07050370546177628</v>
+      </c>
+      <c r="H32" s="6" t="n">
+        <v>0.05921862594412957</v>
+      </c>
+      <c r="I32" s="6" t="n">
+        <v>0.08472868931836483</v>
+      </c>
+      <c r="J32" s="5" t="n">
+        <v>172</v>
+      </c>
+      <c r="K32" s="5" t="n">
+        <v>134983</v>
+      </c>
+      <c r="L32" s="5" t="n">
+        <v>115698</v>
+      </c>
+      <c r="M32" s="5" t="n">
+        <v>156461</v>
+      </c>
+      <c r="N32" s="6" t="n">
+        <v>0.09028617810454534</v>
+      </c>
+      <c r="O32" s="6" t="n">
+        <v>0.07738700568317503</v>
+      </c>
+      <c r="P32" s="6" t="n">
+        <v>0.1046519692845361</v>
+      </c>
+      <c r="Q32" s="5" t="n">
+        <v>289</v>
+      </c>
+      <c r="R32" s="5" t="n">
+        <v>269056</v>
+      </c>
+      <c r="S32" s="5" t="n">
+        <v>239621</v>
+      </c>
+      <c r="T32" s="5" t="n">
+        <v>303630</v>
+      </c>
+      <c r="U32" s="6" t="n">
+        <v>0.07921096238765966</v>
+      </c>
+      <c r="V32" s="6" t="n">
+        <v>0.07054538645706847</v>
+      </c>
+      <c r="W32" s="6" t="n">
+        <v>0.08938974177765505</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>Turnos</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>292</v>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>350827</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>313283</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>388659</v>
+      </c>
+      <c r="G33" s="6" t="n">
+        <v>0.1844866489382435</v>
+      </c>
+      <c r="H33" s="6" t="n">
+        <v>0.1647434493574888</v>
+      </c>
+      <c r="I33" s="6" t="n">
+        <v>0.2043809969652854</v>
+      </c>
+      <c r="J33" s="5" t="n">
+        <v>387</v>
+      </c>
+      <c r="K33" s="5" t="n">
+        <v>297731</v>
+      </c>
+      <c r="L33" s="5" t="n">
+        <v>271032</v>
+      </c>
+      <c r="M33" s="5" t="n">
+        <v>323804</v>
+      </c>
+      <c r="N33" s="6" t="n">
+        <v>0.1991435901658245</v>
+      </c>
+      <c r="O33" s="6" t="n">
+        <v>0.181285481754895</v>
+      </c>
+      <c r="P33" s="6" t="n">
+        <v>0.2165830755543819</v>
+      </c>
+      <c r="Q33" s="5" t="n">
+        <v>679</v>
+      </c>
+      <c r="R33" s="5" t="n">
+        <v>648558</v>
+      </c>
+      <c r="S33" s="5" t="n">
+        <v>603063</v>
+      </c>
+      <c r="T33" s="5" t="n">
+        <v>703787</v>
+      </c>
+      <c r="U33" s="6" t="n">
+        <v>0.1909379027992096</v>
+      </c>
+      <c r="V33" s="6" t="n">
+        <v>0.1775440968707597</v>
+      </c>
+      <c r="W33" s="6" t="n">
+        <v>0.2071974666509652</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua nocturna</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>25973</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>16480</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>38602</v>
+      </c>
+      <c r="G34" s="6" t="n">
+        <v>0.01365816571710627</v>
+      </c>
+      <c r="H34" s="6" t="n">
+        <v>0.008666225720832876</v>
+      </c>
+      <c r="I34" s="6" t="n">
+        <v>0.02029923220369741</v>
+      </c>
+      <c r="J34" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="K34" s="5" t="n">
+        <v>7936</v>
+      </c>
+      <c r="L34" s="5" t="n">
+        <v>3427</v>
+      </c>
+      <c r="M34" s="5" t="n">
+        <v>15857</v>
+      </c>
+      <c r="N34" s="6" t="n">
+        <v>0.005308492700853523</v>
+      </c>
+      <c r="O34" s="6" t="n">
+        <v>0.002292478004083089</v>
+      </c>
+      <c r="P34" s="6" t="n">
+        <v>0.01060614403658533</v>
+      </c>
+      <c r="Q34" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="R34" s="5" t="n">
+        <v>33909</v>
+      </c>
+      <c r="S34" s="5" t="n">
+        <v>23164</v>
+      </c>
+      <c r="T34" s="5" t="n">
+        <v>48536</v>
+      </c>
+      <c r="U34" s="6" t="n">
+        <v>0.009983056466989203</v>
+      </c>
+      <c r="V34" s="6" t="n">
+        <v>0.006819606877996562</v>
+      </c>
+      <c r="W34" s="6" t="n">
+        <v>0.01428913858780178</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua de tarde</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>32705</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>21656</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>46055</v>
+      </c>
+      <c r="G35" s="6" t="n">
+        <v>0.01719856802995499</v>
+      </c>
+      <c r="H35" s="6" t="n">
+        <v>0.01138790512546168</v>
+      </c>
+      <c r="I35" s="6" t="n">
+        <v>0.02421849014760616</v>
+      </c>
+      <c r="J35" s="5" t="n">
+        <v>73</v>
+      </c>
+      <c r="K35" s="5" t="n">
+        <v>63249</v>
+      </c>
+      <c r="L35" s="5" t="n">
+        <v>48886</v>
+      </c>
+      <c r="M35" s="5" t="n">
+        <v>82239</v>
+      </c>
+      <c r="N35" s="6" t="n">
+        <v>0.04230569990637778</v>
+      </c>
+      <c r="O35" s="6" t="n">
+        <v>0.03269832360520591</v>
+      </c>
+      <c r="P35" s="6" t="n">
+        <v>0.05500710119306909</v>
+      </c>
+      <c r="Q35" s="5" t="n">
+        <v>99</v>
+      </c>
+      <c r="R35" s="5" t="n">
+        <v>95955</v>
+      </c>
+      <c r="S35" s="5" t="n">
+        <v>76665</v>
+      </c>
+      <c r="T35" s="5" t="n">
+        <v>119200</v>
+      </c>
+      <c r="U35" s="6" t="n">
+        <v>0.02824947414607987</v>
+      </c>
+      <c r="V35" s="6" t="n">
+        <v>0.02257044241204463</v>
+      </c>
+      <c r="W35" s="6" t="n">
+        <v>0.035093055213009</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua de mañana</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>700</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>811088</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>759045</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>857681</v>
+      </c>
+      <c r="G36" s="6" t="n">
+        <v>0.4265200635096839</v>
+      </c>
+      <c r="H36" s="6" t="n">
+        <v>0.3991528896345535</v>
+      </c>
+      <c r="I36" s="6" t="n">
+        <v>0.4510219629081141</v>
+      </c>
+      <c r="J36" s="5" t="n">
+        <v>924</v>
+      </c>
+      <c r="K36" s="5" t="n">
+        <v>663980</v>
+      </c>
+      <c r="L36" s="5" t="n">
+        <v>630522</v>
+      </c>
+      <c r="M36" s="5" t="n">
+        <v>699927</v>
+      </c>
+      <c r="N36" s="6" t="n">
+        <v>0.4441173771358648</v>
+      </c>
+      <c r="O36" s="6" t="n">
+        <v>0.4217377691860998</v>
+      </c>
+      <c r="P36" s="6" t="n">
+        <v>0.46816087994518</v>
+      </c>
+      <c r="Q36" s="5" t="n">
+        <v>1624</v>
+      </c>
+      <c r="R36" s="5" t="n">
+        <v>1475068</v>
+      </c>
+      <c r="S36" s="5" t="n">
+        <v>1409666</v>
+      </c>
+      <c r="T36" s="5" t="n">
+        <v>1532523</v>
+      </c>
+      <c r="U36" s="6" t="n">
+        <v>0.4342655225185461</v>
+      </c>
+      <c r="V36" s="6" t="n">
+        <v>0.415010979144592</v>
+      </c>
+      <c r="W36" s="6" t="n">
+        <v>0.4511804323261108</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Jornada partida</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>479</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>546974</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>503955</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>592698</v>
+      </c>
+      <c r="G37" s="6" t="n">
+        <v>0.287632848343235</v>
+      </c>
+      <c r="H37" s="6" t="n">
+        <v>0.2650109104632251</v>
+      </c>
+      <c r="I37" s="6" t="n">
+        <v>0.3116773083080642</v>
+      </c>
+      <c r="J37" s="5" t="n">
+        <v>436</v>
+      </c>
+      <c r="K37" s="5" t="n">
+        <v>327176</v>
+      </c>
+      <c r="L37" s="5" t="n">
+        <v>295726</v>
+      </c>
+      <c r="M37" s="5" t="n">
+        <v>354047</v>
+      </c>
+      <c r="N37" s="6" t="n">
+        <v>0.2188386619865342</v>
+      </c>
+      <c r="O37" s="6" t="n">
+        <v>0.1978025902429482</v>
+      </c>
+      <c r="P37" s="6" t="n">
+        <v>0.2368117294606298</v>
+      </c>
+      <c r="Q37" s="5" t="n">
+        <v>915</v>
+      </c>
+      <c r="R37" s="5" t="n">
+        <v>874150</v>
+      </c>
+      <c r="S37" s="5" t="n">
+        <v>824479</v>
+      </c>
+      <c r="T37" s="5" t="n">
+        <v>924206</v>
+      </c>
+      <c r="U37" s="6" t="n">
+        <v>0.2573530816815155</v>
+      </c>
+      <c r="V37" s="6" t="n">
+        <v>0.242729676487454</v>
+      </c>
+      <c r="W37" s="6" t="n">
+        <v>0.272089570921446</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>1638</v>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>1901640</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>1901640</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>1901640</v>
+      </c>
+      <c r="G38" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K38" s="5" t="n">
+        <v>1495056</v>
+      </c>
+      <c r="L38" s="5" t="n">
+        <v>1495056</v>
+      </c>
+      <c r="M38" s="5" t="n">
+        <v>1495056</v>
+      </c>
+      <c r="N38" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="5" t="n">
+        <v>3638</v>
+      </c>
+      <c r="R38" s="5" t="n">
+        <v>3396696</v>
+      </c>
+      <c r="S38" s="5" t="n">
+        <v>3396696</v>
+      </c>
+      <c r="T38" s="5" t="n">
+        <v>3396696</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>1</v>
